--- a/teaching/traditional_assets/database/data/china/china_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1635</v>
+        <v>0.0429</v>
       </c>
       <c r="E2">
-        <v>0.1315</v>
+        <v>0.111</v>
       </c>
       <c r="F2">
-        <v>0.3225</v>
+        <v>0.1057</v>
       </c>
       <c r="G2">
-        <v>0.06679390398084166</v>
+        <v>0.2489290315203676</v>
       </c>
       <c r="H2">
-        <v>0.04832983256517114</v>
+        <v>0.232387097009097</v>
       </c>
       <c r="I2">
-        <v>0.04953663093447934</v>
+        <v>0.1904797729829757</v>
       </c>
       <c r="J2">
-        <v>0.03957237264143663</v>
+        <v>0.1583831698635711</v>
       </c>
       <c r="K2">
-        <v>2457.216</v>
+        <v>4042.477</v>
       </c>
       <c r="L2">
-        <v>0.205465211952559</v>
+        <v>0.1565816594171302</v>
       </c>
       <c r="M2">
-        <v>3109.2505</v>
+        <v>3021.1571</v>
       </c>
       <c r="N2">
-        <v>0.05755919613183012</v>
+        <v>0.02506415542585444</v>
       </c>
       <c r="O2">
-        <v>1.265354978968068</v>
+        <v>0.747352947215284</v>
       </c>
       <c r="P2">
-        <v>3013.7005</v>
+        <v>2835.6911</v>
       </c>
       <c r="Q2">
-        <v>0.05579035145675605</v>
+        <v>0.02352549043878326</v>
       </c>
       <c r="R2">
-        <v>1.22646950858207</v>
+        <v>0.7014736509323367</v>
       </c>
       <c r="S2">
-        <v>95.55</v>
+        <v>185.4660000000001</v>
       </c>
       <c r="T2">
-        <v>0.03073087871176671</v>
+        <v>0.06138906182667565</v>
       </c>
       <c r="U2">
-        <v>18007.725</v>
+        <v>28163.083</v>
       </c>
       <c r="V2">
-        <v>0.3333633540182949</v>
+        <v>0.233646866488088</v>
       </c>
       <c r="W2">
-        <v>0.08229098090849242</v>
+        <v>0.03898858075040783</v>
       </c>
       <c r="X2">
-        <v>0.03249695057246012</v>
+        <v>0.02099604799095146</v>
       </c>
       <c r="Y2">
-        <v>0.0497940303360323</v>
+        <v>0.01799253275945637</v>
       </c>
       <c r="Z2">
-        <v>0.1140999760346335</v>
+        <v>0.2528787760198995</v>
       </c>
       <c r="AA2">
-        <v>0.001687763906150165</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03151346095345373</v>
+        <v>0.02212332282616572</v>
       </c>
       <c r="AC2">
-        <v>-0.02766461672642617</v>
+        <v>-0.0217075709932054</v>
       </c>
       <c r="AD2">
-        <v>102753.753</v>
+        <v>105073.613</v>
       </c>
       <c r="AE2">
-        <v>255.1378019894993</v>
+        <v>264.0630273527387</v>
       </c>
       <c r="AF2">
-        <v>103008.8908019895</v>
+        <v>105337.6760273527</v>
       </c>
       <c r="AG2">
-        <v>85001.1658019895</v>
+        <v>77174.59302735273</v>
       </c>
       <c r="AH2">
-        <v>0.6559939314710398</v>
+        <v>0.4663546021811704</v>
       </c>
       <c r="AI2">
-        <v>0.7432934931560912</v>
+        <v>0.67160684551293</v>
       </c>
       <c r="AJ2">
-        <v>0.6114335082306004</v>
+        <v>0.3903393193046027</v>
       </c>
       <c r="AK2">
-        <v>0.7049552343939693</v>
+        <v>0.59973492012657</v>
       </c>
       <c r="AL2">
-        <v>144.705</v>
+        <v>1129.131</v>
       </c>
       <c r="AM2">
-        <v>-561.761</v>
+        <v>161.8160000000001</v>
       </c>
       <c r="AN2">
-        <v>155.4783155390928</v>
+        <v>20.42486079031988</v>
       </c>
       <c r="AO2">
-        <v>4.019626135931722</v>
+        <v>4.285438093542733</v>
       </c>
       <c r="AP2">
-        <v>128.6165973689785</v>
+        <v>15.00167619755562</v>
       </c>
       <c r="AQ2">
-        <v>-1.035422537342393</v>
+        <v>29.90322959410686</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hithink RoyalFlush Information Network Co., Ltd. (SZSE:300033)</t>
+          <t>Lufax Holding Ltd (NYSE:LU)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,122 +727,101 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
-        <v>0.904</v>
+      <c r="F3">
+        <v>0.0944</v>
       </c>
       <c r="G3">
-        <v>0.6555798687089716</v>
+        <v>0.4335667977191658</v>
       </c>
       <c r="H3">
-        <v>0.3943107221006564</v>
+        <v>0.4335667977191658</v>
       </c>
       <c r="I3">
-        <v>0.4354485776805251</v>
+        <v>0.4416122061082615</v>
       </c>
       <c r="J3">
-        <v>0.395962056782543</v>
+        <v>0.2888100808400039</v>
       </c>
       <c r="K3">
-        <v>108.2</v>
+        <v>1751.7</v>
       </c>
       <c r="L3">
-        <v>0.4735229759299781</v>
+        <v>0.2280443669122816</v>
       </c>
       <c r="M3">
-        <v>36.1</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.00428522251106917</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.333641404805915</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>36.1</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.00428522251106917</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.333641404805915</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>486.3</v>
+        <v>2117.1</v>
       </c>
       <c r="V3">
-        <v>0.05772586446351626</v>
-      </c>
-      <c r="W3">
-        <v>0.2455742169768498</v>
+        <v>0.0611495102782359</v>
       </c>
       <c r="X3">
-        <v>0.02801532215363055</v>
-      </c>
-      <c r="Y3">
-        <v>0.2175588948232192</v>
-      </c>
-      <c r="Z3">
-        <v>5.311483031148303</v>
-      </c>
-      <c r="AA3">
-        <v>2.103145745579058</v>
+        <v>0.01904464817593223</v>
       </c>
       <c r="AB3">
-        <v>0.02801532215363055</v>
-      </c>
-      <c r="AC3">
-        <v>2.075130423425428</v>
+        <v>0.01998658824669598</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>4553.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>4553.2</v>
       </c>
       <c r="AG3">
-        <v>-486.3</v>
+        <v>2436.1</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.1162274823930629</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.3364789866907086</v>
       </c>
       <c r="AJ3">
-        <v>-0.06126228269085413</v>
+        <v>0.06573784736276844</v>
       </c>
       <c r="AK3">
-        <v>-45.02777777777773</v>
+        <v>0.2134159161789957</v>
       </c>
       <c r="AL3">
-        <v>0.016</v>
+        <v>454.6</v>
       </c>
       <c r="AM3">
-        <v>-16.484</v>
+        <v>386.4</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.327928138124125</v>
       </c>
       <c r="AO3">
-        <v>6218.75</v>
+        <v>7.461944566652001</v>
       </c>
       <c r="AP3">
-        <v>-4.644699140401146</v>
+        <v>0.7104818012132524</v>
       </c>
       <c r="AQ3">
-        <v>-6.036156272749332</v>
+        <v>8.778985507246375</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>China Art Financial Holdings Limited (SEHK:1572)</t>
+          <t>Hithink RoyalFlush Information Network Co., Ltd. (SZSE:300033)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -861,41 +840,47 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.208</v>
+      </c>
+      <c r="E4">
+        <v>0.181</v>
+      </c>
       <c r="G4">
-        <v>0.8648648648648649</v>
+        <v>0.5974652987326494</v>
       </c>
       <c r="H4">
-        <v>0.8648648648648649</v>
+        <v>0.3545564272782137</v>
       </c>
       <c r="I4">
-        <v>0.7960864079547932</v>
+        <v>0.4815932407966204</v>
       </c>
       <c r="J4">
-        <v>0.5614504140312752</v>
+        <v>0.4514778463379773</v>
       </c>
       <c r="K4">
-        <v>18.7</v>
+        <v>178.4</v>
       </c>
       <c r="L4">
-        <v>0.5615615615615616</v>
+        <v>0.5383222691611347</v>
       </c>
       <c r="M4">
-        <v>3.76</v>
+        <v>60.6</v>
       </c>
       <c r="N4">
-        <v>0.07626774847870182</v>
+        <v>0.005935822591388159</v>
       </c>
       <c r="O4">
-        <v>0.2010695187165775</v>
+        <v>0.3396860986547085</v>
       </c>
       <c r="P4">
-        <v>3.76</v>
+        <v>60.6</v>
       </c>
       <c r="Q4">
-        <v>0.07626774847870182</v>
+        <v>0.005935822591388159</v>
       </c>
       <c r="R4">
-        <v>0.2010695187165775</v>
+        <v>0.3396860986547085</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +889,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>99.40000000000001</v>
+        <v>649.5</v>
       </c>
       <c r="V4">
-        <v>2.016227180527383</v>
+        <v>0.06361908866512557</v>
       </c>
       <c r="W4">
-        <v>0.1612068965517241</v>
+        <v>0.3588815127740897</v>
       </c>
       <c r="X4">
-        <v>0.02827624313811969</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y4">
-        <v>0.1329306534136044</v>
+        <v>0.3407117324637393</v>
       </c>
       <c r="Z4">
-        <v>1.463310901735712</v>
+        <v>32.31594344222326</v>
       </c>
       <c r="AA4">
-        <v>0.8215765116359942</v>
+        <v>14.58993254767484</v>
       </c>
       <c r="AB4">
-        <v>0.02869999906944619</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC4">
-        <v>0.792876512566548</v>
+        <v>14.57176276736449</v>
       </c>
       <c r="AD4">
-        <v>0.989</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9566130755269278</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.945613075526928</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-97.45438692447308</v>
+        <v>-649.5</v>
       </c>
       <c r="AH4">
-        <v>0.03796643183211487</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0136203908096094</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>2.023790419704102</v>
+        <v>-0.06794146259819868</v>
       </c>
       <c r="AK4">
-        <v>-2.243135267882076</v>
+        <v>37.76162790697664</v>
       </c>
       <c r="AL4">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="AM4">
-        <v>-0.261</v>
+        <v>-21.87</v>
       </c>
       <c r="AN4">
-        <v>0.03676443254897587</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>942.8571428571428</v>
+        <v>5320</v>
       </c>
       <c r="AP4">
-        <v>-3.622704989571878</v>
+        <v>-3.929219600725952</v>
       </c>
       <c r="AQ4">
-        <v>-101.1494252873563</v>
+        <v>-7.29766803840878</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CSSC (Hong Kong) Shipping Company Limited (SEHK:3877)</t>
+          <t>Beijing Compass Technology Development Co., Ltd. (SZSE:300803)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -990,40 +975,40 @@
         </is>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.33991683991684</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2068607068607068</v>
       </c>
       <c r="I5">
-        <v>0.001527523287519742</v>
+        <v>0.08823746287613789</v>
       </c>
       <c r="J5">
-        <v>0.001523481225897382</v>
+        <v>0.08103728590544504</v>
       </c>
       <c r="K5">
-        <v>96.5</v>
+        <v>11.5</v>
       </c>
       <c r="L5">
-        <v>0.5190962883270576</v>
+        <v>0.1195426195426195</v>
       </c>
       <c r="M5">
-        <v>187.8</v>
+        <v>5.96</v>
       </c>
       <c r="N5">
-        <v>0.1819767441860465</v>
+        <v>0.002947139395737527</v>
       </c>
       <c r="O5">
-        <v>1.946113989637306</v>
+        <v>0.5182608695652174</v>
       </c>
       <c r="P5">
-        <v>187.8</v>
+        <v>5.96</v>
       </c>
       <c r="Q5">
-        <v>0.1819767441860465</v>
+        <v>0.002947139395737527</v>
       </c>
       <c r="R5">
-        <v>1.946113989637306</v>
+        <v>0.5182608695652174</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1032,61 +1017,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>347.2</v>
+        <v>117.4</v>
       </c>
       <c r="V5">
-        <v>0.3364341085271318</v>
+        <v>0.05805271225831974</v>
+      </c>
+      <c r="W5">
+        <v>0.1034172661870504</v>
       </c>
       <c r="X5">
-        <v>0.04501771566589314</v>
+        <v>0.01817131906906434</v>
+      </c>
+      <c r="Y5">
+        <v>0.08524594711798603</v>
       </c>
       <c r="Z5">
-        <v>427.1922169306045</v>
+        <v>24.87214658826192</v>
       </c>
       <c r="AA5">
-        <v>0.6508193223432576</v>
+        <v>2.01557125415512</v>
       </c>
       <c r="AB5">
-        <v>0.03272044754850498</v>
+        <v>0.0181733952091281</v>
       </c>
       <c r="AC5">
-        <v>0.6180988747947526</v>
+        <v>1.997397858945992</v>
       </c>
       <c r="AD5">
-        <v>2653.5</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.4351671042504003</v>
+        <v>0.4677803565776745</v>
       </c>
       <c r="AF5">
-        <v>2653.93516710425</v>
+        <v>0.4677803565776745</v>
       </c>
       <c r="AG5">
-        <v>2306.735167104251</v>
+        <v>-116.9322196434223</v>
       </c>
       <c r="AH5">
-        <v>0.7200167791310444</v>
+        <v>0.0002312575675370968</v>
       </c>
       <c r="AI5">
-        <v>0.7162469918148653</v>
+        <v>0.002842478373130574</v>
       </c>
       <c r="AJ5">
-        <v>0.690900910569953</v>
+        <v>-0.06136989448910446</v>
       </c>
       <c r="AK5">
-        <v>0.6869095650766698</v>
+        <v>-2.479069796361868</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.147</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-4.702999999999999</v>
       </c>
       <c r="AN5">
-        <v>7152.291105121294</v>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>55.64625850340136</v>
       </c>
       <c r="AP5">
-        <v>6217.615005671834</v>
+        <v>-10.5325364477952</v>
+      </c>
+      <c r="AQ5">
+        <v>-1.739315330640017</v>
       </c>
     </row>
     <row r="6">
@@ -1097,7 +1094,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>International Alliance Financial Leasing Co., Ltd. (SEHK:1563)</t>
+          <t>Shanghai DZH Limited (SHSE:601519)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1105,32 +1102,35 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.0157</v>
+      </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2608652900688299</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.08879056047197639</v>
       </c>
       <c r="I6">
-        <v>0.05735020162624363</v>
+        <v>0.07112174618308012</v>
       </c>
       <c r="J6">
-        <v>0.03581021979479062</v>
+        <v>0.06513254650450495</v>
       </c>
       <c r="K6">
-        <v>2.65</v>
+        <v>15.7</v>
       </c>
       <c r="L6">
-        <v>0.2572815533980582</v>
+        <v>0.1543756145526057</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>0.187</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>5.917159763313609e-05</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0.01191082802547771</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1142,64 +1142,76 @@
         <v>-0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.187</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>93.09999999999999</v>
+        <v>160.8</v>
       </c>
       <c r="V6">
-        <v>0.3806214227309894</v>
+        <v>0.0508812454513812</v>
+      </c>
+      <c r="W6">
+        <v>0.08215593929879644</v>
       </c>
       <c r="X6">
-        <v>0.03723117558579859</v>
+        <v>0.01817690477354961</v>
+      </c>
+      <c r="Y6">
+        <v>0.06397903452524684</v>
       </c>
       <c r="Z6">
-        <v>10.82541570553833</v>
+        <v>13.58791489295681</v>
       </c>
       <c r="AA6">
-        <v>0.3876605157853058</v>
+        <v>0.885015498664765</v>
       </c>
       <c r="AB6">
-        <v>0.0347165660097133</v>
+        <v>0.01818650327764292</v>
       </c>
       <c r="AC6">
-        <v>0.3529439497755925</v>
+        <v>0.8668289953871221</v>
       </c>
       <c r="AD6">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.951464616248453</v>
+        <v>3.384592065903758</v>
       </c>
       <c r="AF6">
-        <v>340.9514646162485</v>
+        <v>3.384592065903758</v>
       </c>
       <c r="AG6">
-        <v>247.8514646162485</v>
+        <v>-157.4154079340963</v>
       </c>
       <c r="AH6">
-        <v>0.5822741214381507</v>
+        <v>0.001069826010592794</v>
       </c>
       <c r="AI6">
-        <v>0.6497389480667515</v>
+        <v>0.01534373744877225</v>
       </c>
       <c r="AJ6">
-        <v>0.503301304646116</v>
+        <v>-0.0524213978619134</v>
       </c>
       <c r="AK6">
-        <v>0.5741934985361304</v>
+        <v>-2.633043105162764</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>-9.58</v>
       </c>
       <c r="AN6">
-        <v>435.3393085787452</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>317.351427165491</v>
+        <v>-15.02055419218476</v>
+      </c>
+      <c r="AQ6">
+        <v>-0.5198329853862214</v>
       </c>
     </row>
     <row r="7">
@@ -1210,7 +1222,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flying Financial Service Holdings Limited (SEHK:8030)</t>
+          <t>Yiren Digital Ltd. (NYSE:YRD)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1219,34 +1231,37 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.344</v>
+        <v>0.394</v>
+      </c>
+      <c r="E7">
+        <v>0.0307</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.2385272846811309</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2385272846811309</v>
       </c>
       <c r="I7">
-        <v>0.04319160093775565</v>
+        <v>0.09864005183432946</v>
       </c>
       <c r="J7">
-        <v>0.03922744030374246</v>
+        <v>0.08233761648932522</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>39.9</v>
       </c>
       <c r="L7">
-        <v>0.718232044198895</v>
+        <v>0.05246548323471401</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>5.43</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.01751612903225806</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.1360902255639098</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1258,64 +1273,76 @@
         <v>-0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>5.43</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>417.7</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.34741935483871</v>
+      </c>
+      <c r="W7">
+        <v>0.09755501222493887</v>
       </c>
       <c r="X7">
-        <v>0.03393978953447238</v>
+        <v>0.01903718480132479</v>
+      </c>
+      <c r="Y7">
+        <v>0.07851782742361407</v>
       </c>
       <c r="Z7">
-        <v>8.453361274607317</v>
+        <v>9.374860983482218</v>
       </c>
       <c r="AA7">
-        <v>0.3316037247656268</v>
+        <v>0.7719037082986973</v>
       </c>
       <c r="AB7">
-        <v>0.03345432997103551</v>
+        <v>0.01961125382298769</v>
       </c>
       <c r="AC7">
-        <v>0.2981493947945913</v>
+        <v>0.7522924544757096</v>
       </c>
       <c r="AD7">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>2.141160115133113</v>
+        <v>40.42120289996218</v>
       </c>
       <c r="AF7">
-        <v>20.34116011513311</v>
+        <v>40.42120289996218</v>
       </c>
       <c r="AG7">
-        <v>20.34116011513311</v>
+        <v>-377.2787971000378</v>
       </c>
       <c r="AH7">
-        <v>0.4725978589034648</v>
+        <v>0.1153503342989824</v>
       </c>
       <c r="AI7">
-        <v>0.08785116264001847</v>
+        <v>0.05946732679149803</v>
       </c>
       <c r="AJ7">
-        <v>0.4725978589034648</v>
+        <v>5.607692369098937</v>
       </c>
       <c r="AK7">
-        <v>0.08785116264001847</v>
+        <v>-1.43987888355768</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>-9.35</v>
       </c>
       <c r="AN7">
-        <v>15.04132231404959</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>16.81087612820918</v>
+        <v>-3.826356968560221</v>
+      </c>
+      <c r="AQ7">
+        <v>-5.914438502673796</v>
       </c>
     </row>
     <row r="8">
@@ -1326,7 +1353,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FY Financial (Shenzhen) Co., Ltd. (SEHK:8452)</t>
+          <t>FinVolution Group (NYSE:FINV)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1335,103 +1362,115 @@
         </is>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.4491533440544888</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3993945700501372</v>
       </c>
       <c r="I8">
-        <v>0.006660306774756323</v>
+        <v>0.572149367551012</v>
       </c>
       <c r="J8">
-        <v>0.004965318523695582</v>
+        <v>0.4694298567247877</v>
       </c>
       <c r="K8">
-        <v>4.98</v>
+        <v>278.3</v>
       </c>
       <c r="L8">
-        <v>0.2243243243243244</v>
+        <v>0.263267429760666</v>
       </c>
       <c r="M8">
-        <v>2.5151</v>
+        <v>63.73</v>
       </c>
       <c r="N8">
-        <v>0.07165527065527066</v>
+        <v>0.07833087512291052</v>
       </c>
       <c r="O8">
-        <v>0.5050401606425703</v>
+        <v>0.22899748472871</v>
       </c>
       <c r="P8">
-        <v>2.5151</v>
+        <v>57.5</v>
       </c>
       <c r="Q8">
-        <v>0.07165527065527066</v>
+        <v>0.07067354965585054</v>
       </c>
       <c r="R8">
-        <v>0.5050401606425703</v>
+        <v>0.2066115702479339</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>6.230000000000004</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.09775615879491611</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.2003441494591937</v>
+      </c>
+      <c r="W8">
+        <v>0.2627702766499859</v>
       </c>
       <c r="X8">
-        <v>0.04902624806785667</v>
+        <v>0.01846375954535363</v>
+      </c>
+      <c r="Y8">
+        <v>0.2443065171046322</v>
       </c>
       <c r="Z8">
-        <v>64.21642476301415</v>
+        <v>1.284752304003786</v>
       </c>
       <c r="AA8">
-        <v>0.3188550034012979</v>
+        <v>0.6031010899953384</v>
       </c>
       <c r="AB8">
-        <v>0.03676942085853711</v>
+        <v>0.01869865163962932</v>
       </c>
       <c r="AC8">
-        <v>0.2820855825427607</v>
+        <v>0.584402438355709</v>
       </c>
       <c r="AD8">
-        <v>111.2</v>
+        <v>22.1</v>
       </c>
       <c r="AE8">
-        <v>0.3457059480020481</v>
+        <v>13.85451780912656</v>
       </c>
       <c r="AF8">
-        <v>111.5457059480021</v>
+        <v>35.95451780912656</v>
       </c>
       <c r="AG8">
-        <v>111.5457059480021</v>
+        <v>-127.0454821908734</v>
       </c>
       <c r="AH8">
-        <v>0.7606476113767298</v>
+        <v>0.04232161333430121</v>
       </c>
       <c r="AI8">
-        <v>0.6321814710575852</v>
+        <v>0.02938530101094804</v>
       </c>
       <c r="AJ8">
-        <v>0.7606476113767298</v>
+        <v>-0.1850479151987667</v>
       </c>
       <c r="AK8">
-        <v>0.6321814710575852</v>
+        <v>-0.1197915619211369</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>34.7</v>
       </c>
       <c r="AN8">
-        <v>512.442396313364</v>
+        <v>0.0357726735622137</v>
+      </c>
+      <c r="AO8">
+        <v>17.32276657060519</v>
       </c>
       <c r="AP8">
-        <v>514.0355112811154</v>
+        <v>-0.2056450933017262</v>
+      </c>
+      <c r="AQ8">
+        <v>17.32276657060519</v>
       </c>
     </row>
     <row r="9">
@@ -1442,7 +1481,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Byleasing Holdings Limited (SEHK:8525)</t>
+          <t>FY Financial (Shenzhen) Co., Ltd. (SEHK:8452)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1457,34 +1496,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01310659296281949</v>
+        <v>0.0002254153078089039</v>
       </c>
       <c r="J9">
-        <v>0.009434051489947189</v>
+        <v>0.0001555964071601284</v>
       </c>
       <c r="K9">
-        <v>2.8</v>
+        <v>3.12</v>
       </c>
       <c r="L9">
-        <v>0.4416403785488959</v>
+        <v>0.1743016759776536</v>
       </c>
       <c r="M9">
-        <v>0.8100000000000001</v>
+        <v>2.5151</v>
       </c>
       <c r="N9">
-        <v>0.04879518072289157</v>
+        <v>0.1180798122065728</v>
       </c>
       <c r="O9">
-        <v>0.2892857142857143</v>
+        <v>0.8061217948717949</v>
       </c>
       <c r="P9">
-        <v>0.8100000000000001</v>
+        <v>2.5151</v>
       </c>
       <c r="Q9">
-        <v>0.04879518072289157</v>
+        <v>0.1180798122065728</v>
       </c>
       <c r="R9">
-        <v>0.2892857142857143</v>
+        <v>0.8061217948717949</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1499,43 +1538,43 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.02812266768688241</v>
+        <v>0.03900277842010252</v>
       </c>
       <c r="Z9">
-        <v>23.52321313582582</v>
+        <v>3709.590884227089</v>
       </c>
       <c r="AA9">
-        <v>0.2219192039323829</v>
+        <v>0.5771990136196986</v>
       </c>
       <c r="AB9">
-        <v>0.02866292177217951</v>
+        <v>0.03001794149256481</v>
       </c>
       <c r="AC9">
-        <v>0.1932562821602034</v>
+        <v>0.5471810721271338</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="AE9">
-        <v>0.2695210030786223</v>
+        <v>0.004825329951103099</v>
       </c>
       <c r="AF9">
-        <v>0.2695210030786223</v>
+        <v>66.70482532995111</v>
       </c>
       <c r="AG9">
-        <v>0.2695210030786223</v>
+        <v>66.70482532995111</v>
       </c>
       <c r="AH9">
-        <v>0.01597680236619853</v>
+        <v>0.7579678168766177</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.4911815553525821</v>
       </c>
       <c r="AJ9">
-        <v>0.01597680236619853</v>
+        <v>0.7579678168766177</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.4911815553525821</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1544,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>13340</v>
       </c>
       <c r="AP9">
-        <v>1.967306591814761</v>
+        <v>13340.96506599022</v>
       </c>
     </row>
     <row r="10">
@@ -1558,7 +1597,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ziyuanyuan Holdings Group Limited (SEHK:8223)</t>
+          <t>360 DigiTech, Inc. (NasdaqGS:QFIN)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1566,23 +1605,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="F10">
+        <v>0.06900000000000001</v>
+      </c>
       <c r="G10">
-        <v>0.02412398921832884</v>
+        <v>0.2240924979833288</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2240924979833288</v>
       </c>
       <c r="I10">
-        <v>0.01790874356633475</v>
+        <v>0.2237596877748586</v>
       </c>
       <c r="J10">
-        <v>0.01357492163243432</v>
+        <v>0.1985396521067003</v>
       </c>
       <c r="K10">
-        <v>2.89</v>
+        <v>400.8</v>
       </c>
       <c r="L10">
-        <v>0.3894878706199461</v>
+        <v>0.2155418123151385</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1606,61 +1648,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>709.9</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.3958403033344485</v>
+      </c>
+      <c r="W10">
+        <v>0.4248913389165695</v>
       </c>
       <c r="X10">
-        <v>0.02931070662926596</v>
+        <v>0.01829995710734996</v>
+      </c>
+      <c r="Y10">
+        <v>0.4065913818092196</v>
       </c>
       <c r="Z10">
-        <v>11.76683996419194</v>
+        <v>2.04814590644884</v>
       </c>
       <c r="AA10">
-        <v>0.1597339303753019</v>
+        <v>0.4066381757301151</v>
       </c>
       <c r="AB10">
-        <v>0.02990080110408803</v>
+        <v>0.01840962539242171</v>
       </c>
       <c r="AC10">
-        <v>0.1298331292712138</v>
+        <v>0.3882285503376934</v>
       </c>
       <c r="AD10">
-        <v>9.93</v>
+        <v>27.2</v>
       </c>
       <c r="AE10">
-        <v>0.6305856136889808</v>
+        <v>7.894302913251859</v>
       </c>
       <c r="AF10">
-        <v>10.56058561368898</v>
+        <v>35.09430291325186</v>
       </c>
       <c r="AG10">
-        <v>10.56058561368898</v>
+        <v>-674.8056970867481</v>
       </c>
       <c r="AH10">
-        <v>0.1638301221304188</v>
+        <v>0.01919300643012001</v>
       </c>
       <c r="AI10">
-        <v>0.2060176544465541</v>
+        <v>0.02813860104337955</v>
       </c>
       <c r="AJ10">
-        <v>0.1638301221304188</v>
+        <v>-0.603262233080656</v>
       </c>
       <c r="AK10">
-        <v>0.2060176544465541</v>
+        <v>-1.255933095564012</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>-4.470000000000001</v>
       </c>
       <c r="AN10">
-        <v>38.33976833976834</v>
+        <v>0.06487621046605925</v>
+      </c>
+      <c r="AO10">
+        <v>197.0952380952381</v>
       </c>
       <c r="AP10">
-        <v>40.77446182891498</v>
+        <v>-1.609516045143224</v>
+      </c>
+      <c r="AQ10">
+        <v>-92.59507829977626</v>
       </c>
     </row>
     <row r="11">
@@ -1671,7 +1725,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Zhengzhou Deheng Hongsheng Technology Co., Ltd. (SHSE:600817)</t>
+          <t>China Art Financial Holdings Limited (SEHK:1572)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1679,119 +1733,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.126</v>
-      </c>
-      <c r="E11">
-        <v>0.203</v>
-      </c>
       <c r="G11">
-        <v>0.1229418221734358</v>
+        <v>1.574803149606299</v>
       </c>
       <c r="H11">
-        <v>0.1141602634467618</v>
+        <v>1.574803149606299</v>
       </c>
       <c r="I11">
-        <v>0.1481888035126235</v>
+        <v>0.8110236220472442</v>
       </c>
       <c r="J11">
-        <v>0.116010663321311</v>
+        <v>0.5885304159988852</v>
       </c>
       <c r="K11">
-        <v>0.819</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11">
-        <v>0.08990120746432492</v>
+        <v>0.6456692913385826</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>2.04</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.06644951140065147</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.2487804878048781</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>2.04</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.06644951140065147</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0.2487804878048781</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
       <c r="U11">
-        <v>8.25</v>
+        <v>107.5</v>
       </c>
       <c r="V11">
-        <v>0.04910714285714286</v>
+        <v>3.501628664495114</v>
       </c>
       <c r="W11">
-        <v>0.0585</v>
+        <v>0.05819730305180978</v>
       </c>
       <c r="X11">
-        <v>0.02801532215363055</v>
+        <v>0.01830434383411407</v>
       </c>
       <c r="Y11">
-        <v>0.03048467784636944</v>
+        <v>0.03989295921769571</v>
       </c>
       <c r="Z11">
-        <v>1.337738619676946</v>
+        <v>0.2989008919955753</v>
       </c>
       <c r="AA11">
-        <v>0.1551919446192574</v>
+        <v>0.1759122663085938</v>
       </c>
       <c r="AB11">
-        <v>0.02801532215363055</v>
+        <v>0.01841754749710029</v>
       </c>
       <c r="AC11">
-        <v>0.1271766224656269</v>
+        <v>0.1574947188114935</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.621</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.621</v>
       </c>
       <c r="AG11">
-        <v>-8.25</v>
+        <v>-106.879</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.019826953162415</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.004246995985528754</v>
       </c>
       <c r="AJ11">
-        <v>-0.05164319248826291</v>
+        <v>1.402998201604117</v>
       </c>
       <c r="AK11">
-        <v>-0.7534246575342466</v>
+        <v>-2.760233465044809</v>
       </c>
       <c r="AL11">
-        <v>0.002</v>
+        <v>0.042</v>
       </c>
       <c r="AM11">
-        <v>-0.016</v>
+        <v>-1.568</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.05971153846153846</v>
       </c>
       <c r="AO11">
-        <v>675</v>
+        <v>245.2380952380952</v>
       </c>
       <c r="AP11">
-        <v>-6.111111111111111</v>
+        <v>-10.27682692307692</v>
       </c>
       <c r="AQ11">
-        <v>-84.375</v>
+        <v>-6.568877551020408</v>
       </c>
     </row>
     <row r="12">
@@ -1811,40 +1862,40 @@
         </is>
       </c>
       <c r="G12">
-        <v>0.6908496732026144</v>
+        <v>0.6601020408163265</v>
       </c>
       <c r="H12">
-        <v>0.6758169934640523</v>
+        <v>0.6346938775510205</v>
       </c>
       <c r="I12">
-        <v>0.7581681141758611</v>
+        <v>0.7</v>
       </c>
       <c r="J12">
-        <v>0.5735053853765919</v>
+        <v>0.5941086587436332</v>
       </c>
       <c r="K12">
-        <v>36.8</v>
+        <v>48.2</v>
       </c>
       <c r="L12">
-        <v>0.4810457516339869</v>
+        <v>0.4918367346938776</v>
       </c>
       <c r="M12">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>0.005609573672400898</v>
+        <v>0.008210180623973728</v>
       </c>
       <c r="O12">
-        <v>0.1222826086956522</v>
+        <v>0.1244813278008299</v>
       </c>
       <c r="P12">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>0.005609573672400898</v>
+        <v>0.008210180623973728</v>
       </c>
       <c r="R12">
-        <v>0.1222826086956522</v>
+        <v>0.1244813278008299</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1853,73 +1904,73 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>24.6</v>
+        <v>29.9</v>
       </c>
       <c r="V12">
-        <v>0.03066566940912491</v>
+        <v>0.04091406677613574</v>
       </c>
       <c r="W12">
-        <v>0.206857785272625</v>
+        <v>0.1565443325755116</v>
       </c>
       <c r="X12">
-        <v>0.03002902241555076</v>
+        <v>0.02062753963279967</v>
       </c>
       <c r="Y12">
-        <v>0.1768287628570743</v>
+        <v>0.1359167929427119</v>
       </c>
       <c r="Z12">
-        <v>0.1755671579825095</v>
+        <v>0.1861348528015195</v>
       </c>
       <c r="AA12">
-        <v>0.1006887105982321</v>
+        <v>0.1105843277433543</v>
       </c>
       <c r="AB12">
-        <v>0.03003685576099546</v>
+        <v>0.02020570203218782</v>
       </c>
       <c r="AC12">
-        <v>0.07065185483723664</v>
+        <v>0.09037862571116652</v>
       </c>
       <c r="AD12">
-        <v>243.2</v>
+        <v>270</v>
       </c>
       <c r="AE12">
-        <v>1.130696327733125</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>244.3306963277331</v>
+        <v>270</v>
       </c>
       <c r="AG12">
-        <v>219.7306963277331</v>
+        <v>240.1</v>
       </c>
       <c r="AH12">
-        <v>0.2334673002761289</v>
+        <v>0.2697841726618705</v>
       </c>
       <c r="AI12">
-        <v>0.4289282475520931</v>
+        <v>0.4286394665819971</v>
       </c>
       <c r="AJ12">
-        <v>0.2150152619128934</v>
+        <v>0.247296322999279</v>
       </c>
       <c r="AK12">
-        <v>0.4031528825958209</v>
+        <v>0.4001666666666667</v>
       </c>
       <c r="AL12">
-        <v>15.2</v>
+        <v>18.4</v>
       </c>
       <c r="AM12">
-        <v>14.607</v>
+        <v>17.768</v>
       </c>
       <c r="AN12">
-        <v>4.148330092450449</v>
+        <v>3.918722786647315</v>
       </c>
       <c r="AO12">
-        <v>3.782894736842105</v>
+        <v>3.728260869565217</v>
       </c>
       <c r="AP12">
-        <v>3.748007647250932</v>
+        <v>3.484760522496371</v>
       </c>
       <c r="AQ12">
-        <v>3.936468816320942</v>
+        <v>3.860873480414228</v>
       </c>
     </row>
     <row r="13">
@@ -1930,7 +1981,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>51 Credit Card Inc. (SEHK:2051)</t>
+          <t>LexinFintech Holdings Ltd. (NasdaqGM:LX)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1938,23 +1989,26 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="F13">
+        <v>0.117</v>
+      </c>
       <c r="G13">
-        <v>0.1484798491633278</v>
+        <v>0.2620972398660354</v>
       </c>
       <c r="H13">
-        <v>0.05373556445910912</v>
+        <v>0.2212149208915579</v>
       </c>
       <c r="I13">
-        <v>0.07495732241111465</v>
+        <v>0.1058871105153445</v>
       </c>
       <c r="J13">
-        <v>0.07495732241111465</v>
+        <v>0.09182397865002531</v>
       </c>
       <c r="K13">
-        <v>37.6</v>
+        <v>88.8</v>
       </c>
       <c r="L13">
-        <v>0.08861654489747819</v>
+        <v>0.05127612888324286</v>
       </c>
       <c r="M13">
         <v>-0</v>
@@ -1978,73 +2032,73 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>214.7</v>
+        <v>234.6</v>
       </c>
       <c r="V13">
-        <v>0.9610564010743061</v>
+        <v>0.1948504983388704</v>
       </c>
       <c r="W13">
-        <v>-0.09978768577494693</v>
+        <v>0.105388084500356</v>
       </c>
       <c r="X13">
-        <v>0.03078919034480734</v>
+        <v>0.02636128861271801</v>
       </c>
       <c r="Y13">
-        <v>-0.1305768761197543</v>
+        <v>0.07902679588763803</v>
       </c>
       <c r="Z13">
-        <v>1.196464891484611</v>
+        <v>1.231306517775333</v>
       </c>
       <c r="AA13">
-        <v>0.08968380462459132</v>
+        <v>0.1130634633998392</v>
       </c>
       <c r="AB13">
-        <v>0.0314167622497747</v>
+        <v>0.02506590835803289</v>
       </c>
       <c r="AC13">
-        <v>0.05826704237481661</v>
+        <v>0.08799755504180634</v>
       </c>
       <c r="AD13">
-        <v>81.5</v>
+        <v>1471.8</v>
       </c>
       <c r="AE13">
-        <v>12.22804050482026</v>
+        <v>10.7735100476319</v>
       </c>
       <c r="AF13">
-        <v>93.72804050482026</v>
+        <v>1482.573510047632</v>
       </c>
       <c r="AG13">
-        <v>-120.9719594951797</v>
+        <v>1247.973510047632</v>
       </c>
       <c r="AH13">
-        <v>0.2955526744201468</v>
+        <v>0.5518455030182093</v>
       </c>
       <c r="AI13">
-        <v>0.1452409234092783</v>
+        <v>0.6717372589985169</v>
       </c>
       <c r="AJ13">
-        <v>-1.181043383227533</v>
+        <v>0.508966962707272</v>
       </c>
       <c r="AK13">
-        <v>-0.280919838274734</v>
+        <v>0.632694686996073</v>
       </c>
       <c r="AL13">
-        <v>8.710000000000001</v>
+        <v>13.1</v>
       </c>
       <c r="AM13">
-        <v>2.990000000000001</v>
+        <v>11.91</v>
       </c>
       <c r="AN13">
-        <v>1.813125695216907</v>
+        <v>7.648495556825858</v>
       </c>
       <c r="AO13">
-        <v>3.363949483352468</v>
+        <v>13.6412213740458</v>
       </c>
       <c r="AP13">
-        <v>-2.691256051060728</v>
+        <v>6.485337577548365</v>
       </c>
       <c r="AQ13">
-        <v>9.799331103678927</v>
+        <v>15.00419815281276</v>
       </c>
     </row>
     <row r="14">
@@ -2055,7 +2109,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shanghai Dongzheng Automotive Finance Co., Ltd. (SEHK:2718)</t>
+          <t>Qudian Inc. (NYSE:QD)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2064,103 +2118,109 @@
         </is>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.051080550098232</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.010524838619141</v>
       </c>
       <c r="I14">
-        <v>0.004512358601954067</v>
+        <v>0.2445155210651386</v>
       </c>
       <c r="J14">
-        <v>0.00338426895146555</v>
+        <v>0.146468410647886</v>
       </c>
       <c r="K14">
-        <v>62.7</v>
+        <v>60.8</v>
       </c>
       <c r="L14">
-        <v>0.6371951219512195</v>
+        <v>0.08532135840583777</v>
       </c>
       <c r="M14">
-        <v>25.6764</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.09076139978791092</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>0.409511961722488</v>
+        <v>-0</v>
       </c>
       <c r="P14">
-        <v>25.6764</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.09076139978791092</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>0.409511961722488</v>
+        <v>-0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
-        <v>0</v>
+        <v>219.3</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.6263924592973437</v>
+      </c>
+      <c r="W14">
+        <v>0.03702125068501492</v>
       </c>
       <c r="X14">
-        <v>0.05400159058748796</v>
+        <v>0.02099604799095146</v>
+      </c>
+      <c r="Y14">
+        <v>0.01602520269406346</v>
       </c>
       <c r="Z14">
-        <v>27.87598927084086</v>
+        <v>0.4050149562428311</v>
       </c>
       <c r="AA14">
-        <v>0.09433984498069353</v>
+        <v>0.05932189692951057</v>
       </c>
       <c r="AB14">
-        <v>0.03718985785510708</v>
+        <v>0.02189589974610082</v>
       </c>
       <c r="AC14">
-        <v>0.05714998712558646</v>
+        <v>0.03742599718340975</v>
       </c>
       <c r="AD14">
-        <v>1108.4</v>
+        <v>142.3</v>
       </c>
       <c r="AE14">
-        <v>3.529919567838599</v>
+        <v>6.441198444911044</v>
       </c>
       <c r="AF14">
-        <v>1111.929919567839</v>
+        <v>148.741198444911</v>
       </c>
       <c r="AG14">
-        <v>1111.929919567839</v>
+        <v>-70.55880155508896</v>
       </c>
       <c r="AH14">
-        <v>0.7971795729133404</v>
+        <v>0.2981734445923818</v>
       </c>
       <c r="AI14">
-        <v>0.6566140746182174</v>
+        <v>0.08245803376324957</v>
       </c>
       <c r="AJ14">
-        <v>0.7971795729133404</v>
+        <v>-0.2524093119282878</v>
       </c>
       <c r="AK14">
-        <v>0.6566140746182174</v>
+        <v>-0.04452948375487887</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>-63.8</v>
       </c>
       <c r="AN14">
-        <v>963.8260869565219</v>
+        <v>0.7913028971806706</v>
       </c>
       <c r="AP14">
-        <v>966.8955822329033</v>
+        <v>-0.3923639078857196</v>
+      </c>
+      <c r="AQ14">
+        <v>-2.697492163009404</v>
       </c>
     </row>
     <row r="15">
@@ -2171,7 +2231,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fincera Inc. (OTCPK:YUAN.F)</t>
+          <t>Shanghai Aj Group Co.,Ltd (SHSE:600643)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2180,118 +2240,121 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.279</v>
+        <v>0.261</v>
       </c>
       <c r="E15">
-        <v>0.141</v>
+        <v>0.186</v>
       </c>
       <c r="G15">
-        <v>0.6747663551401869</v>
+        <v>0.4467315762967937</v>
       </c>
       <c r="H15">
-        <v>0.5987538940809969</v>
+        <v>0.4465334900117509</v>
       </c>
       <c r="I15">
-        <v>0.3739463280866476</v>
+        <v>0.3966761792848749</v>
       </c>
       <c r="J15">
-        <v>0.2517714972308574</v>
+        <v>0.2869947746345722</v>
       </c>
       <c r="K15">
-        <v>17.1</v>
+        <v>194.8</v>
       </c>
       <c r="L15">
-        <v>0.1065420560747664</v>
+        <v>0.3270102400537183</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>142.8</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.07643721228990473</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>0.7330595482546202</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>142.8</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.07643721228990473</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0.7330595482546202</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
-        <v>79.40000000000001</v>
+        <v>465.1</v>
       </c>
       <c r="V15">
-        <v>1.341216216216216</v>
+        <v>0.248956214538058</v>
       </c>
       <c r="W15">
-        <v>0.3569937369519833</v>
+        <v>0.1326885089571555</v>
       </c>
       <c r="X15">
-        <v>0.0810728854162672</v>
+        <v>0.02548977042810566</v>
       </c>
       <c r="Y15">
-        <v>0.2759208515357161</v>
+        <v>0.1071987385290499</v>
       </c>
       <c r="Z15">
-        <v>0.3487742376168549</v>
+        <v>0.196880060812374</v>
       </c>
       <c r="AA15">
-        <v>0.08781141200034639</v>
+        <v>0.05650354868288816</v>
       </c>
       <c r="AB15">
-        <v>0.03824886647708304</v>
+        <v>0.02212332282616572</v>
       </c>
       <c r="AC15">
-        <v>0.04956254552326336</v>
+        <v>0.03438022585672244</v>
       </c>
       <c r="AD15">
-        <v>474.2</v>
+        <v>2055.7</v>
       </c>
       <c r="AE15">
-        <v>0.8830717104652624</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>475.0830717104653</v>
+        <v>2055.7</v>
       </c>
       <c r="AG15">
-        <v>395.6830717104652</v>
+        <v>1590.6</v>
       </c>
       <c r="AH15">
-        <v>0.8891973129328694</v>
+        <v>0.5238920461785469</v>
       </c>
       <c r="AI15">
-        <v>0.9030571353794324</v>
+        <v>0.5504029559024338</v>
       </c>
       <c r="AJ15">
-        <v>0.8698566649723976</v>
+        <v>0.4598704753093558</v>
       </c>
       <c r="AK15">
-        <v>0.8858250889054117</v>
+        <v>0.4864517707505046</v>
       </c>
       <c r="AL15">
-        <v>33.6</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="AM15">
-        <v>33.6</v>
+        <v>-30.19999999999999</v>
       </c>
       <c r="AN15">
-        <v>7.004948666814387</v>
+        <v>7.187762237762237</v>
       </c>
       <c r="AO15">
-        <v>1.782738095238095</v>
+        <v>3.404899135446686</v>
       </c>
       <c r="AP15">
-        <v>5.84508562981705</v>
+        <v>5.561538461538461</v>
       </c>
       <c r="AQ15">
-        <v>1.782738095238095</v>
+        <v>-7.824503311258281</v>
       </c>
     </row>
     <row r="16">
@@ -2302,7 +2365,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>China Financial Services Holdings Limited (SEHK:605)</t>
+          <t>Zhengzhou Deheng Hongsheng Technology Co., Ltd. (SHSE:600817)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2311,121 +2374,115 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.08869999999999999</v>
-      </c>
-      <c r="E16">
-        <v>-0.0129</v>
+        <v>0.335</v>
       </c>
       <c r="G16">
-        <v>0.7358851674641149</v>
+        <v>0.09768115942028986</v>
       </c>
       <c r="H16">
-        <v>0.7358851674641149</v>
+        <v>0.07318840579710145</v>
       </c>
       <c r="I16">
-        <v>0.6763000582937284</v>
+        <v>0.02760869565217391</v>
       </c>
       <c r="J16">
-        <v>0.4652944401060851</v>
+        <v>0.01380434782608696</v>
       </c>
       <c r="K16">
-        <v>30.4</v>
+        <v>-0.473</v>
       </c>
       <c r="L16">
-        <v>0.2909090909090909</v>
+        <v>-0.03427536231884058</v>
       </c>
       <c r="M16">
-        <v>16.48</v>
+        <v>0.079</v>
       </c>
       <c r="N16">
-        <v>0.07347302719572002</v>
+        <v>7.106233696141045e-05</v>
       </c>
       <c r="O16">
-        <v>0.5421052631578948</v>
+        <v>-0.1670190274841438</v>
       </c>
       <c r="P16">
-        <v>7.14</v>
+        <v>0.079</v>
       </c>
       <c r="Q16">
-        <v>0.03183236736513598</v>
+        <v>7.106233696141045e-05</v>
       </c>
       <c r="R16">
-        <v>0.2348684210526316</v>
+        <v>-0.1670190274841438</v>
       </c>
       <c r="S16">
-        <v>9.34</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.566747572815534</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>89.3</v>
+        <v>19.1</v>
       </c>
       <c r="V16">
-        <v>0.3981275078020508</v>
+        <v>0.01718089412611316</v>
       </c>
       <c r="W16">
-        <v>0.06287487073422958</v>
+        <v>-0.03330985915492958</v>
       </c>
       <c r="X16">
-        <v>0.03559313557500068</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y16">
-        <v>0.0272817351592289</v>
+        <v>-0.05147963946527995</v>
       </c>
       <c r="Z16">
-        <v>0.177695939158864</v>
+        <v>2.319327731092437</v>
       </c>
       <c r="AA16">
-        <v>0.08268093252004857</v>
+        <v>0.03201680672268908</v>
       </c>
       <c r="AB16">
-        <v>0.03416157915721998</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC16">
-        <v>0.04851935336282859</v>
+        <v>0.01384702641233871</v>
       </c>
       <c r="AD16">
-        <v>254.9</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>2.183219541526891</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>257.0832195415269</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>167.7832195415269</v>
+        <v>-19.1</v>
       </c>
       <c r="AH16">
-        <v>0.534051061826324</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.3423288468395811</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.4279275704217083</v>
+        <v>-0.01748123741533955</v>
       </c>
       <c r="AK16">
-        <v>0.2535703106658532</v>
+        <v>4.658536585365852</v>
       </c>
       <c r="AL16">
-        <v>19.9</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>19.9</v>
+        <v>-0.083</v>
       </c>
       <c r="AN16">
-        <v>3.55459489610933</v>
-      </c>
-      <c r="AO16">
-        <v>3.492462311557789</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.339746472479806</v>
+        <v>-46.58536585365854</v>
       </c>
       <c r="AQ16">
-        <v>3.492462311557789</v>
+        <v>-4.590361445783133</v>
       </c>
     </row>
     <row r="17">
@@ -2436,7 +2493,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shanghai Aj Group Co.,Ltd (SHSE:600643)</t>
+          <t>Minsheng Holdings Co.,Ltd (SZSE:000416)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2445,46 +2502,46 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.293</v>
+        <v>-0.232</v>
       </c>
       <c r="E17">
-        <v>0.225</v>
+        <v>-0.135</v>
       </c>
       <c r="G17">
-        <v>0.3901619913077835</v>
+        <v>0.5277227722772277</v>
       </c>
       <c r="H17">
-        <v>0.3901619913077835</v>
+        <v>0.5277227722772277</v>
       </c>
       <c r="I17">
-        <v>0.4298696167522718</v>
+        <v>0.3821782178217822</v>
       </c>
       <c r="J17">
-        <v>0.3188492256501682</v>
+        <v>0.2468883756238593</v>
       </c>
       <c r="K17">
-        <v>190.6</v>
+        <v>3.63</v>
       </c>
       <c r="L17">
-        <v>0.3765310154089292</v>
+        <v>0.3594059405940594</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>2.35</v>
       </c>
       <c r="N17">
-        <v>0.05545121187729184</v>
+        <v>0.005007457916045174</v>
       </c>
       <c r="O17">
-        <v>0.6505771248688352</v>
+        <v>0.6473829201101928</v>
       </c>
       <c r="P17">
-        <v>124</v>
+        <v>2.35</v>
       </c>
       <c r="Q17">
-        <v>0.05545121187729184</v>
+        <v>0.005007457916045174</v>
       </c>
       <c r="R17">
-        <v>0.6505771248688352</v>
+        <v>0.6473829201101928</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2493,73 +2550,73 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>188</v>
+        <v>9.83</v>
       </c>
       <c r="V17">
-        <v>0.08407119220105537</v>
+        <v>0.02094608992115917</v>
       </c>
       <c r="W17">
-        <v>0.1399720937063964</v>
+        <v>0.02932148626817448</v>
       </c>
       <c r="X17">
-        <v>0.03319642308669408</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="Y17">
-        <v>0.1067756706197023</v>
+        <v>0.01115170595782411</v>
       </c>
       <c r="Z17">
-        <v>0.1971398750642593</v>
+        <v>0.08563458619841788</v>
       </c>
       <c r="AA17">
-        <v>0.06285789650900997</v>
+        <v>0.02114218388374875</v>
       </c>
       <c r="AB17">
-        <v>0.03181956001904743</v>
+        <v>0.01816978031035037</v>
       </c>
       <c r="AC17">
-        <v>0.03103833648996254</v>
+        <v>0.002972403573398376</v>
       </c>
       <c r="AD17">
-        <v>1752.4</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1752.4</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>1564.4</v>
+        <v>-9.83</v>
       </c>
       <c r="AH17">
-        <v>0.4393521536378679</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>0.5415662278261945</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0.4116192180182077</v>
+        <v>-0.02139421507388948</v>
       </c>
       <c r="AK17">
-        <v>0.5132882735087604</v>
+        <v>-0.07809644871693017</v>
       </c>
       <c r="AL17">
-        <v>58.4</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AM17">
-        <v>-47.50000000000001</v>
+        <v>-2.008</v>
       </c>
       <c r="AN17">
-        <v>7.543693499784761</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>3.726027397260274</v>
+        <v>53.61111111111111</v>
       </c>
       <c r="AP17">
-        <v>6.7343951786483</v>
+        <v>-2.275462962962963</v>
       </c>
       <c r="AQ17">
-        <v>-4.581052631578946</v>
+        <v>-1.922310756972111</v>
       </c>
     </row>
     <row r="18">
@@ -2579,46 +2636,46 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.04190000000000001</v>
+        <v>-0.0588</v>
       </c>
       <c r="E18">
-        <v>-0.137</v>
+        <v>-0.325</v>
       </c>
       <c r="G18">
-        <v>0.3461538461538461</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
-        <v>0.3461538461538461</v>
+        <v>0.5</v>
       </c>
       <c r="I18">
-        <v>0.3922178772682636</v>
+        <v>0.2705314009661836</v>
       </c>
       <c r="J18">
-        <v>0.2676714986971133</v>
+        <v>0.1672869925630203</v>
       </c>
       <c r="K18">
-        <v>9.73</v>
+        <v>2.86</v>
       </c>
       <c r="L18">
-        <v>0.1782051282051282</v>
+        <v>0.06908212560386473</v>
       </c>
       <c r="M18">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="N18">
-        <v>0.01090361445783133</v>
+        <v>0.01225944404846757</v>
       </c>
       <c r="O18">
-        <v>0.1860226104830421</v>
+        <v>0.6013986013986015</v>
       </c>
       <c r="P18">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="Q18">
-        <v>0.01090361445783133</v>
+        <v>0.01225944404846757</v>
       </c>
       <c r="R18">
-        <v>0.1860226104830421</v>
+        <v>0.6013986013986015</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2627,73 +2684,73 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>145.9</v>
+        <v>73.3</v>
       </c>
       <c r="V18">
-        <v>0.8789156626506024</v>
+        <v>0.5224518888096934</v>
       </c>
       <c r="W18">
-        <v>0.037495183044316</v>
+        <v>0.0110723964382501</v>
       </c>
       <c r="X18">
-        <v>0.03449595878849433</v>
+        <v>0.02180651667779802</v>
       </c>
       <c r="Y18">
-        <v>0.002999224255821671</v>
+        <v>-0.01073412023954792</v>
       </c>
       <c r="Z18">
-        <v>0.1956887408465925</v>
+        <v>0.1512052593133674</v>
       </c>
       <c r="AA18">
-        <v>0.05238029854055844</v>
+        <v>0.02529467309024484</v>
       </c>
       <c r="AB18">
-        <v>0.03371217962179329</v>
+        <v>0.02258674003422449</v>
       </c>
       <c r="AC18">
-        <v>0.01866811891876514</v>
+        <v>0.002707933056020351</v>
       </c>
       <c r="AD18">
-        <v>161.4</v>
+        <v>76.7</v>
       </c>
       <c r="AE18">
-        <v>1.314519505764027</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>162.714519505764</v>
+        <v>76.7</v>
       </c>
       <c r="AG18">
-        <v>16.81451950576403</v>
+        <v>3.400000000000006</v>
       </c>
       <c r="AH18">
-        <v>0.4950025321376497</v>
+        <v>0.3534562211981567</v>
       </c>
       <c r="AI18">
-        <v>0.3688713753699913</v>
+        <v>0.2185807922485039</v>
       </c>
       <c r="AJ18">
-        <v>0.09197584278984949</v>
+        <v>0.02366040361865</v>
       </c>
       <c r="AK18">
-        <v>0.05695695297749651</v>
+        <v>0.01224783861671472</v>
       </c>
       <c r="AL18">
-        <v>7.54</v>
+        <v>6.67</v>
       </c>
       <c r="AM18">
-        <v>7.54</v>
+        <v>6.67</v>
       </c>
       <c r="AN18">
-        <v>7.277482189557219</v>
+        <v>6.787610619469026</v>
       </c>
       <c r="AO18">
-        <v>2.785145888594164</v>
+        <v>1.679160419790105</v>
       </c>
       <c r="AP18">
-        <v>0.7581621203789352</v>
+        <v>0.3008849557522129</v>
       </c>
       <c r="AQ18">
-        <v>2.785145888594164</v>
+        <v>1.679160419790105</v>
       </c>
     </row>
     <row r="19">
@@ -2704,7 +2761,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shanghai DZH Limited (SHSE:601519)</t>
+          <t>Oceanwide Holdings Co., Ltd. (SZSE:000046)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2713,46 +2770,43 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.08449999999999999</v>
-      </c>
-      <c r="E19">
-        <v>-0.268</v>
+        <v>0.0307</v>
       </c>
       <c r="G19">
-        <v>0.2041331802525833</v>
+        <v>0.06166825691759152</v>
       </c>
       <c r="H19">
-        <v>0.01239954075774971</v>
+        <v>0.06166825691759152</v>
       </c>
       <c r="I19">
-        <v>0.006854563448149062</v>
+        <v>0.04978574802797552</v>
       </c>
       <c r="J19">
-        <v>0.005819658770683419</v>
+        <v>0.04978574802797552</v>
       </c>
       <c r="K19">
-        <v>8.67</v>
+        <v>-296</v>
       </c>
       <c r="L19">
-        <v>0.09954075774971298</v>
+        <v>-0.1486466127655301</v>
       </c>
       <c r="M19">
-        <v>0.005</v>
+        <v>1004.5</v>
       </c>
       <c r="N19">
-        <v>2.219854377552833e-06</v>
+        <v>0.3847774457979009</v>
       </c>
       <c r="O19">
-        <v>0.0005767012687427913</v>
+        <v>-3.393581081081081</v>
       </c>
       <c r="P19">
-        <v>0.005</v>
+        <v>1004.5</v>
       </c>
       <c r="Q19">
-        <v>2.219854377552833e-06</v>
+        <v>0.3847774457979009</v>
       </c>
       <c r="R19">
-        <v>0.0005767012687427913</v>
+        <v>-3.393581081081081</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2761,73 +2815,73 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>145.5</v>
+        <v>2778.5</v>
       </c>
       <c r="V19">
-        <v>0.06459776238678742</v>
+        <v>1.064314716923313</v>
       </c>
       <c r="W19">
-        <v>0.04432515337423313</v>
+        <v>-0.09240470764524084</v>
       </c>
       <c r="X19">
-        <v>0.02803327109593301</v>
+        <v>0.05408899687169628</v>
       </c>
       <c r="Y19">
-        <v>0.01629188227830012</v>
+        <v>-0.1464937045169371</v>
       </c>
       <c r="Z19">
-        <v>1.205655852835701</v>
+        <v>0.1369088999690576</v>
       </c>
       <c r="AA19">
-        <v>0.007016505658381082</v>
+        <v>0.006816111996646806</v>
       </c>
       <c r="AB19">
-        <v>0.0280464816130029</v>
+        <v>0.02453703149752207</v>
       </c>
       <c r="AC19">
-        <v>-0.02102997595462182</v>
+        <v>-0.01772091950087527</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>13996.1</v>
       </c>
       <c r="AE19">
-        <v>6.114837618331084</v>
+        <v>99.80819975946173</v>
       </c>
       <c r="AF19">
-        <v>6.114837618331084</v>
+        <v>14095.90819975946</v>
       </c>
       <c r="AG19">
-        <v>-139.3851623816689</v>
+        <v>11317.40819975946</v>
       </c>
       <c r="AH19">
-        <v>0.002707459573203139</v>
+        <v>0.8437375441483586</v>
       </c>
       <c r="AI19">
-        <v>0.03100597141765317</v>
+        <v>0.7144617850185347</v>
       </c>
       <c r="AJ19">
-        <v>-0.06596506560208346</v>
+        <v>0.8125647283834105</v>
       </c>
       <c r="AK19">
-        <v>-2.695264430884761</v>
+        <v>0.667657925250286</v>
       </c>
       <c r="AL19">
-        <v>0.003</v>
+        <v>504.3</v>
       </c>
       <c r="AM19">
-        <v>-25.997</v>
+        <v>240.9</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>107.4144282425173</v>
       </c>
       <c r="AO19">
-        <v>-379.9999999999999</v>
+        <v>0.1501090620662304</v>
       </c>
       <c r="AP19">
-        <v>-49.4624422929982</v>
+        <v>86.85654796438574</v>
       </c>
       <c r="AQ19">
-        <v>0.04385121360156941</v>
+        <v>0.3142382731423827</v>
       </c>
     </row>
     <row r="20">
@@ -2838,7 +2892,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Metropolis Capital Holdings Limited (SEHK:8621)</t>
+          <t>Yangzhou Guangling District Taihe Rural Micro-finance Company Limited (SEHK:1915)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2853,100 +2907,97 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.04649382786215992</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04649382786215992</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>-0.874</v>
+        <v>4.78</v>
       </c>
       <c r="L20">
-        <v>-0.3066666666666666</v>
+        <v>0.5538818076477404</v>
       </c>
       <c r="M20">
-        <v>-0</v>
+        <v>2.4</v>
       </c>
       <c r="N20">
-        <v>-0</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="P20">
-        <v>-0</v>
+        <v>2.4</v>
       </c>
       <c r="Q20">
-        <v>-0</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
       <c r="U20">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>0.001256038647342995</v>
       </c>
       <c r="W20">
-        <v>-0.03400778210116732</v>
+        <v>0.03898858075040783</v>
       </c>
       <c r="X20">
-        <v>0.02855690696744232</v>
+        <v>0.01819235647219103</v>
       </c>
       <c r="Y20">
-        <v>-0.06256468906860964</v>
+        <v>0.02079622427821681</v>
       </c>
       <c r="Z20">
-        <v>0.07518308475395187</v>
+        <v>0.07131229496682286</v>
       </c>
       <c r="AA20">
-        <v>0.003495549400696418</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.02888669003136722</v>
+        <v>0.01821204643346179</v>
       </c>
       <c r="AC20">
-        <v>-0.0253911406306708</v>
+        <v>-0.01821204643346179</v>
       </c>
       <c r="AD20">
-        <v>1.3</v>
+        <v>0.281</v>
       </c>
       <c r="AE20">
-        <v>0.3874629529642211</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1.687462952964221</v>
+        <v>0.281</v>
       </c>
       <c r="AG20">
-        <v>1.687462952964221</v>
+        <v>0.177</v>
       </c>
       <c r="AH20">
-        <v>0.07571355055196129</v>
+        <v>0.003382241427041081</v>
       </c>
       <c r="AI20">
-        <v>0.05115467519797812</v>
+        <v>0.002262826036189111</v>
       </c>
       <c r="AJ20">
-        <v>0.07571355055196129</v>
+        <v>0.002133121226363933</v>
       </c>
       <c r="AK20">
-        <v>0.05115467519797812</v>
+        <v>0.001426533523537803</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>6.190476190476191</v>
-      </c>
-      <c r="AP20">
-        <v>8.035537871258196</v>
       </c>
     </row>
     <row r="21">
@@ -2957,7 +3008,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Guangdong Join-Share Financing Guarantee Investment Co., Ltd. (SEHK:1543)</t>
+          <t>Quanzhou Huixin Micro-Credit Co., Ltd. (SEHK:1577)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2972,103 +3023,97 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.008140863767153731</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.00602479678110247</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.3</v>
+        <v>4.14</v>
       </c>
       <c r="L21">
-        <v>0.3875502008032129</v>
+        <v>0.3763636363636363</v>
       </c>
       <c r="M21">
-        <v>100.5</v>
+        <v>4.81</v>
       </c>
       <c r="N21">
-        <v>0.3134747348721147</v>
+        <v>0.04572243346007604</v>
       </c>
       <c r="O21">
-        <v>5.207253886010363</v>
+        <v>1.161835748792271</v>
       </c>
       <c r="P21">
-        <v>15.3</v>
+        <v>4.81</v>
       </c>
       <c r="Q21">
-        <v>0.04772301933873986</v>
+        <v>0.04572243346007604</v>
       </c>
       <c r="R21">
-        <v>0.7927461139896373</v>
+        <v>1.161835748792271</v>
       </c>
       <c r="S21">
-        <v>85.2</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.8477611940298507</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>82.7</v>
+        <v>6.39</v>
       </c>
       <c r="V21">
-        <v>0.2579538365564567</v>
+        <v>0.06074144486692015</v>
       </c>
       <c r="W21">
-        <v>0.06533513879485445</v>
+        <v>0.02688311688311688</v>
       </c>
       <c r="X21">
-        <v>0.02869643209963765</v>
+        <v>0.01862697026978834</v>
       </c>
       <c r="Y21">
-        <v>0.03663870669521679</v>
+        <v>0.008256146613328536</v>
       </c>
       <c r="Z21">
-        <v>0.2047992736451554</v>
+        <v>0.0633421628469423</v>
       </c>
       <c r="AA21">
-        <v>0.001233874004629456</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.0288240262454023</v>
+        <v>0.01865506958730373</v>
       </c>
       <c r="AC21">
-        <v>-0.02759015224077285</v>
+        <v>-0.01865506958730373</v>
       </c>
       <c r="AD21">
-        <v>31.3</v>
+        <v>7.23</v>
       </c>
       <c r="AE21">
-        <v>1.727924921978721</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>33.02792492197872</v>
+        <v>7.23</v>
       </c>
       <c r="AG21">
-        <v>-49.67207507802128</v>
+        <v>0.8400000000000007</v>
       </c>
       <c r="AH21">
-        <v>0.09339738916055824</v>
+        <v>0.06430667971182069</v>
       </c>
       <c r="AI21">
-        <v>0.08854008698916235</v>
+        <v>0.04123652540922832</v>
       </c>
       <c r="AJ21">
-        <v>-0.1833405511533215</v>
+        <v>0.007921539041870998</v>
       </c>
       <c r="AK21">
-        <v>-0.1710895536189635</v>
+        <v>0.004972179472001899</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>41.67776298268975</v>
-      </c>
-      <c r="AP21">
-        <v>-66.14124511054764</v>
       </c>
     </row>
     <row r="22">
@@ -3079,7 +3124,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Yangzhou Guangling District Taihe Rural Micro-finance Company Limited (SEHK:1915)</t>
+          <t>East Money Information Co.,Ltd. (SZSE:300059)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3087,107 +3132,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D22">
+        <v>0.217</v>
+      </c>
+      <c r="E22">
+        <v>0.194</v>
+      </c>
+      <c r="F22">
+        <v>0.318</v>
+      </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.04144821446236027</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003722833672611645</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.002781701320175421</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>9.380000000000001</v>
+        <v>564.7</v>
       </c>
       <c r="L22">
-        <v>0.5974522292993631</v>
+        <v>0.5586111385893758</v>
       </c>
       <c r="M22">
-        <v>-0</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="N22">
-        <v>-0</v>
+        <v>0.00175069685559196</v>
       </c>
       <c r="O22">
-        <v>-0</v>
+        <v>0.1267929874269523</v>
       </c>
       <c r="P22">
-        <v>-0</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="Q22">
-        <v>-0</v>
+        <v>0.00175069685559196</v>
       </c>
       <c r="R22">
-        <v>-0</v>
+        <v>0.1267929874269523</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>4544.6</v>
       </c>
       <c r="V22">
-        <v>0.008354755784061696</v>
+        <v>0.1111203481832853</v>
       </c>
       <c r="W22">
-        <v>0.07989778534923339</v>
+        <v>0.1942752950080848</v>
       </c>
       <c r="X22">
-        <v>0.02803146160225451</v>
+        <v>0.01863278271242527</v>
       </c>
       <c r="Y22">
-        <v>0.05186632374697887</v>
+        <v>0.1756425122956595</v>
       </c>
       <c r="Z22">
-        <v>0.133655971974826</v>
+        <v>1.023696202531646</v>
       </c>
       <c r="AA22">
-        <v>0.0003717909936917025</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.02803640772011787</v>
+        <v>0.01898293943614568</v>
       </c>
       <c r="AC22">
-        <v>-0.02766461672642617</v>
+        <v>-0.01898293943614568</v>
       </c>
       <c r="AD22">
-        <v>0.367</v>
+        <v>2846.5</v>
       </c>
       <c r="AE22">
-        <v>0.2027575566999859</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>0.569757556699986</v>
+        <v>2846.5</v>
       </c>
       <c r="AG22">
-        <v>-1.380242443300014</v>
+        <v>-1698.1</v>
       </c>
       <c r="AH22">
-        <v>0.00243517607852336</v>
+        <v>0.06507103750185737</v>
       </c>
       <c r="AI22">
-        <v>0.004625791005862001</v>
+        <v>0.3778105173741074</v>
       </c>
       <c r="AJ22">
-        <v>-0.005948814264072818</v>
+        <v>-0.04331898805864302</v>
       </c>
       <c r="AK22">
-        <v>-0.01138628282319746</v>
+        <v>-0.5680024083489432</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>3.707070707070707</v>
-      </c>
-      <c r="AP22">
-        <v>-13.9418428616163</v>
+        <v>-38.8</v>
+      </c>
+      <c r="AQ22">
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
@@ -3198,7 +3252,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>East Money Information Co.,Ltd. (SZSE:300059)</t>
+          <t>Guangdong Join-Share Financing Guarantee Investment Co., Ltd. (SEHK:1543)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3207,16 +3261,13 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.5329999999999999</v>
+        <v>0.0257</v>
       </c>
       <c r="E23">
-        <v>0.765</v>
-      </c>
-      <c r="F23">
-        <v>0.465</v>
+        <v>0.00141</v>
       </c>
       <c r="G23">
-        <v>0.09451395572666026</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3228,28 +3279,28 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>217.2</v>
+        <v>18</v>
       </c>
       <c r="L23">
-        <v>0.4180943214629451</v>
+        <v>0.36</v>
       </c>
       <c r="M23">
-        <v>50.3</v>
+        <v>14.4</v>
       </c>
       <c r="N23">
-        <v>0.003307056588143249</v>
+        <v>0.05544859453215249</v>
       </c>
       <c r="O23">
-        <v>0.2315837937384899</v>
+        <v>0.8</v>
       </c>
       <c r="P23">
-        <v>50.3</v>
+        <v>14.4</v>
       </c>
       <c r="Q23">
-        <v>0.003307056588143249</v>
+        <v>0.05544859453215249</v>
       </c>
       <c r="R23">
-        <v>0.2315837937384899</v>
+        <v>0.8</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3258,64 +3309,61 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>2684.1</v>
+        <v>107</v>
       </c>
       <c r="V23">
-        <v>0.1764705882352941</v>
+        <v>0.4120138621486331</v>
       </c>
       <c r="W23">
-        <v>0.09606793754699455</v>
+        <v>0.06179196704428424</v>
       </c>
       <c r="X23">
-        <v>0.02852746617963044</v>
+        <v>0.01905351371632001</v>
       </c>
       <c r="Y23">
-        <v>0.06754047136736412</v>
+        <v>0.04273845332796423</v>
       </c>
       <c r="Z23">
-        <v>0.3211150945728767</v>
+        <v>0.2084731840943299</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.02863783069893679</v>
+        <v>0.01905473500031833</v>
       </c>
       <c r="AC23">
-        <v>-0.02863783069893679</v>
+        <v>-0.01905473500031833</v>
       </c>
       <c r="AD23">
-        <v>1178.2</v>
+        <v>34.5</v>
       </c>
       <c r="AE23">
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>1178.2</v>
+        <v>34.5</v>
       </c>
       <c r="AG23">
-        <v>-1505.9</v>
+        <v>-72.5</v>
       </c>
       <c r="AH23">
-        <v>0.07189363013406069</v>
+        <v>0.1172671651937458</v>
       </c>
       <c r="AI23">
-        <v>0.2884281132953072</v>
+        <v>0.09309228278467349</v>
       </c>
       <c r="AJ23">
-        <v>-0.1098876240513719</v>
+        <v>-0.3872863247863248</v>
       </c>
       <c r="AK23">
-        <v>-1.075028555111365</v>
+        <v>-0.2750379362670713</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>-33.1</v>
-      </c>
-      <c r="AQ23">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3335,10 +3383,10 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.427</v>
+        <v>0.98</v>
       </c>
       <c r="E24">
-        <v>0.401</v>
+        <v>0.171</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3347,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.008583160276932003</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.006677485259851185</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>43.7</v>
+        <v>30.7</v>
       </c>
       <c r="L24">
-        <v>0.5135135135135136</v>
+        <v>0.04523353469868867</v>
       </c>
       <c r="M24">
         <v>-0</v>
@@ -3380,67 +3428,61 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>3.83</v>
+        <v>18.7</v>
       </c>
       <c r="V24">
-        <v>0.01103110599078341</v>
+        <v>0.02681772551269181</v>
       </c>
       <c r="W24">
-        <v>0.2103996148290804</v>
+        <v>0.1184870706291007</v>
       </c>
       <c r="X24">
-        <v>0.03157238586384602</v>
+        <v>0.02054050353613776</v>
       </c>
       <c r="Y24">
-        <v>0.1788272289652344</v>
+        <v>0.09794656709296296</v>
       </c>
       <c r="Z24">
-        <v>0.3389791819084867</v>
+        <v>1.569212272548612</v>
       </c>
       <c r="AA24">
-        <v>0.002263528490590333</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.03104423859322564</v>
+        <v>0.0201525473549644</v>
       </c>
       <c r="AC24">
-        <v>-0.02878071010263531</v>
+        <v>-0.0201525473549644</v>
       </c>
       <c r="AD24">
-        <v>182.1</v>
+        <v>248.5</v>
       </c>
       <c r="AE24">
-        <v>4.697865302165432</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>186.7978653021654</v>
+        <v>248.5</v>
       </c>
       <c r="AG24">
-        <v>182.9678653021654</v>
+        <v>229.8</v>
       </c>
       <c r="AH24">
-        <v>0.3498101349084324</v>
+        <v>0.2627405371114401</v>
       </c>
       <c r="AI24">
-        <v>0.4149239250097061</v>
+        <v>0.5039545731089028</v>
       </c>
       <c r="AJ24">
-        <v>0.3451130807369552</v>
+        <v>0.2478697012188545</v>
       </c>
       <c r="AK24">
-        <v>0.4099037576961475</v>
+        <v>0.4844013490725127</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>109.0419161676647</v>
-      </c>
-      <c r="AP24">
-        <v>109.5615959893206</v>
       </c>
     </row>
     <row r="25">
@@ -3451,7 +3493,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Quanzhou Huixin Micro-Credit Co., Ltd. (SEHK:1577)</t>
+          <t>Yixin Group Limited (SEHK:2858)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3460,109 +3502,106 @@
         </is>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.05310880829015544</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.00690281408729944</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.005320919192293318</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>12.5</v>
+        <v>-162.1</v>
       </c>
       <c r="L25">
-        <v>0.6510416666666667</v>
+        <v>-0.3499568221070812</v>
       </c>
       <c r="M25">
-        <v>4.95</v>
+        <v>0.899</v>
       </c>
       <c r="N25">
-        <v>0.04107883817427386</v>
+        <v>0.0003526181604236125</v>
       </c>
       <c r="O25">
-        <v>0.396</v>
+        <v>-0.00554595928439235</v>
       </c>
       <c r="P25">
-        <v>4.95</v>
+        <v>-0</v>
       </c>
       <c r="Q25">
-        <v>0.04107883817427386</v>
+        <v>-0</v>
       </c>
       <c r="R25">
-        <v>0.396</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>0.899</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>3.07</v>
+        <v>306.9</v>
       </c>
       <c r="V25">
-        <v>0.02547717842323651</v>
+        <v>0.1203765444204746</v>
       </c>
       <c r="W25">
-        <v>0.08229098090849242</v>
+        <v>-0.07097508647488944</v>
       </c>
       <c r="X25">
-        <v>0.02941593399800039</v>
+        <v>0.02337605781179441</v>
       </c>
       <c r="Y25">
-        <v>0.05287504691049203</v>
+        <v>-0.09435114428668384</v>
       </c>
       <c r="Z25">
-        <v>0.1090064725239278</v>
+        <v>0.07607785168760778</v>
       </c>
       <c r="AA25">
-        <v>0.0005800146317367619</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.03002718874683082</v>
+        <v>0.02148290693717626</v>
       </c>
       <c r="AC25">
-        <v>-0.02944717411509406</v>
+        <v>-0.02148290693717626</v>
       </c>
       <c r="AD25">
-        <v>25.2</v>
+        <v>1995.3</v>
       </c>
       <c r="AE25">
-        <v>0.3273298476192539</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>25.52732984761925</v>
+        <v>1995.3</v>
       </c>
       <c r="AG25">
-        <v>22.45732984761925</v>
+        <v>1688.4</v>
       </c>
       <c r="AH25">
-        <v>0.1748120017962202</v>
+        <v>0.4390292202077099</v>
       </c>
       <c r="AI25">
-        <v>0.1257334658677657</v>
+        <v>0.4886608542319749</v>
       </c>
       <c r="AJ25">
-        <v>0.157091139513846</v>
+        <v>0.3984048703367234</v>
       </c>
       <c r="AK25">
-        <v>0.1123106107924787</v>
+        <v>0.4471043084500702</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>127.2727272727273</v>
-      </c>
-      <c r="AP25">
-        <v>113.4208578162588</v>
+        <v>-9.470000000000001</v>
+      </c>
+      <c r="AQ25">
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3621,10 @@
         </is>
       </c>
       <c r="D26">
-        <v>-0.196</v>
-      </c>
-      <c r="E26">
-        <v>-0.208</v>
+        <v>-0.182</v>
       </c>
       <c r="G26">
-        <v>0.003130287648054145</v>
+        <v>0.01094276094276094</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3600,28 +3636,28 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>7.51</v>
+        <v>3.35</v>
       </c>
       <c r="L26">
-        <v>0.127072758037225</v>
+        <v>0.0563973063973064</v>
       </c>
       <c r="M26">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>0.04523424878836833</v>
+        <v>0.02976960911208905</v>
       </c>
       <c r="O26">
-        <v>2.982689747003994</v>
+        <v>6.865671641791044</v>
       </c>
       <c r="P26">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="Q26">
-        <v>0.04523424878836833</v>
+        <v>0.02976960911208905</v>
       </c>
       <c r="R26">
-        <v>2.982689747003994</v>
+        <v>6.865671641791044</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3630,61 +3666,61 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>44.8</v>
+        <v>51.2</v>
       </c>
       <c r="V26">
-        <v>0.09046849757673667</v>
+        <v>0.06626973854517215</v>
       </c>
       <c r="W26">
-        <v>0.05946159936658749</v>
+        <v>0.01872554499720514</v>
       </c>
       <c r="X26">
-        <v>0.03169089493567997</v>
+        <v>0.02079678973245227</v>
       </c>
       <c r="Y26">
-        <v>0.02777070443090752</v>
+        <v>-0.002071244735247123</v>
       </c>
       <c r="Z26">
-        <v>0.1313333333333333</v>
+        <v>0.176313446126447</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.03110909535158944</v>
+        <v>0.0217075709932054</v>
       </c>
       <c r="AC26">
-        <v>-0.03110909535158944</v>
+        <v>-0.0217075709932054</v>
       </c>
       <c r="AD26">
-        <v>275.3</v>
+        <v>305.1</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>275.3</v>
+        <v>305.1</v>
       </c>
       <c r="AG26">
-        <v>230.5</v>
+        <v>253.9</v>
       </c>
       <c r="AH26">
-        <v>0.3573004542504867</v>
+        <v>0.2831029043333024</v>
       </c>
       <c r="AI26">
-        <v>0.4330659115935189</v>
+        <v>0.4444282592862346</v>
       </c>
       <c r="AJ26">
-        <v>0.3176243626843048</v>
+        <v>0.2473453482708232</v>
       </c>
       <c r="AK26">
-        <v>0.3900829243526824</v>
+        <v>0.3996537069101213</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>-3.65</v>
+        <v>-4.46</v>
       </c>
       <c r="AQ26">
         <v>-0</v>
@@ -3698,7 +3734,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sichuan Western Resources Holding Co., Ltd. (SHSE:600139)</t>
+          <t>Roan Holdings Group Co., Ltd. (OTCPK:RAHG.F)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3706,110 +3742,110 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D27">
-        <v>-0.5429999999999999</v>
+      <c r="E27">
+        <v>0.164</v>
       </c>
       <c r="G27">
-        <v>0.405</v>
+        <v>-0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-0.03571904576599249</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-0.03571904576599249</v>
       </c>
       <c r="K27">
-        <v>0.021</v>
+        <v>24.2</v>
       </c>
       <c r="L27">
-        <v>0.021</v>
+        <v>-25.79957356076759</v>
       </c>
       <c r="M27">
-        <v>0.417</v>
+        <v>-0</v>
       </c>
       <c r="N27">
-        <v>0.001249625412046749</v>
+        <v>-0</v>
       </c>
       <c r="O27">
-        <v>19.85714285714285</v>
+        <v>-0</v>
       </c>
       <c r="P27">
-        <v>0.417</v>
+        <v>-0</v>
       </c>
       <c r="Q27">
-        <v>0.001249625412046749</v>
+        <v>-0</v>
       </c>
       <c r="R27">
-        <v>19.85714285714285</v>
+        <v>-0</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
-        <v>32.2</v>
+        <v>6.91</v>
       </c>
       <c r="V27">
-        <v>0.09649385675756669</v>
+        <v>5.484126984126984</v>
       </c>
       <c r="W27">
-        <v>0.0003811252268602541</v>
+        <v>-0.6722222222222222</v>
       </c>
       <c r="X27">
-        <v>0.03249695057246012</v>
+        <v>0.02159350323689066</v>
       </c>
       <c r="Y27">
-        <v>-0.03211582534559986</v>
+        <v>-0.6938157254591129</v>
       </c>
       <c r="Z27">
-        <v>0.004001600640256103</v>
+        <v>-0.02506849895490819</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>0.0008954228614551006</v>
       </c>
       <c r="AB27">
-        <v>0.03151346095345373</v>
+        <v>0.0234811695958102</v>
       </c>
       <c r="AC27">
-        <v>-0.03151346095345373</v>
+        <v>-0.0225857467343551</v>
       </c>
       <c r="AD27">
-        <v>226.2</v>
+        <v>0.281</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>0.3674776753574952</v>
       </c>
       <c r="AF27">
-        <v>226.2</v>
+        <v>0.6484776753574952</v>
       </c>
       <c r="AG27">
-        <v>194</v>
+        <v>-6.261522324642505</v>
       </c>
       <c r="AH27">
-        <v>0.4040007144132881</v>
+        <v>0.3397879282166728</v>
       </c>
       <c r="AI27">
-        <v>0.6411564625850341</v>
+        <v>0.01277826853262209</v>
       </c>
       <c r="AJ27">
-        <v>0.3676331248815615</v>
+        <v>1.251923298191028</v>
       </c>
       <c r="AK27">
-        <v>0.6051154086088584</v>
+        <v>-0.1428316551275282</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>-13.3</v>
-      </c>
-      <c r="AQ27">
-        <v>-0</v>
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>2.626168224299066</v>
+      </c>
+      <c r="AP27">
+        <v>-58.51890023030379</v>
       </c>
     </row>
     <row r="28">
@@ -3820,7 +3856,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>China Development Bank Financial Leasing Co., Ltd. (SEHK:1606)</t>
+          <t>CNFinance Holdings Limited (NYSE:CNF)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3829,97 +3865,94 @@
         </is>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.002714177407126611</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>-0.001674532140411153</v>
+        <v>0.01683938236061014</v>
       </c>
       <c r="J28">
-        <v>-0.001260068913776782</v>
+        <v>0.01013283065745385</v>
       </c>
       <c r="K28">
-        <v>400.4</v>
+        <v>10.4</v>
       </c>
       <c r="L28">
-        <v>0.325316867078323</v>
+        <v>0.07884761182714177</v>
       </c>
       <c r="M28">
-        <v>141.7</v>
+        <v>-0</v>
       </c>
       <c r="N28">
-        <v>0.05820257947917522</v>
+        <v>-0</v>
       </c>
       <c r="O28">
-        <v>0.3538961038961039</v>
+        <v>-0</v>
       </c>
       <c r="P28">
-        <v>141.7</v>
+        <v>-0</v>
       </c>
       <c r="Q28">
-        <v>0.05820257947917522</v>
+        <v>-0</v>
       </c>
       <c r="R28">
-        <v>0.3538961038961039</v>
+        <v>-0</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
       <c r="U28">
-        <v>2822</v>
+        <v>248.4</v>
       </c>
       <c r="V28">
-        <v>1.159122648484351</v>
+        <v>0.8604087287842052</v>
       </c>
       <c r="W28">
-        <v>0.1154090044388078</v>
+        <v>0.02101010101010101</v>
       </c>
       <c r="X28">
-        <v>0.1069377427341904</v>
+        <v>0.03887092648931205</v>
       </c>
       <c r="Y28">
-        <v>0.008471261704617483</v>
+        <v>-0.01786082547921104</v>
       </c>
       <c r="Z28">
-        <v>0.04665531101982199</v>
+        <v>0.09404671949449804</v>
       </c>
       <c r="AA28">
-        <v>-5.878890707866504e-05</v>
+        <v>0.0009529594825268123</v>
       </c>
       <c r="AB28">
-        <v>0.03307334536080957</v>
+        <v>0.02388096745841269</v>
       </c>
       <c r="AC28">
-        <v>-0.03313213426788823</v>
+        <v>-0.02292800797588588</v>
       </c>
       <c r="AD28">
-        <v>29029.5</v>
+        <v>892.9</v>
       </c>
       <c r="AE28">
-        <v>32.70507079209024</v>
+        <v>5.494427333177609</v>
       </c>
       <c r="AF28">
-        <v>29062.20507079209</v>
+        <v>898.3944273331775</v>
       </c>
       <c r="AG28">
-        <v>26240.20507079209</v>
+        <v>649.9944273331776</v>
       </c>
       <c r="AH28">
-        <v>0.9227032711880458</v>
+        <v>0.7568011496367917</v>
       </c>
       <c r="AI28">
-        <v>0.8927409786197106</v>
+        <v>0.6267600949200252</v>
       </c>
       <c r="AJ28">
-        <v>0.9150961970276875</v>
+        <v>0.6924451753482822</v>
       </c>
       <c r="AK28">
-        <v>0.882560502205082</v>
+        <v>0.5485210835936046</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -3928,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>6479.799107142857</v>
+        <v>268.9457831325302</v>
       </c>
       <c r="AP28">
-        <v>5857.188631873234</v>
+        <v>195.7814540160173</v>
       </c>
     </row>
     <row r="29">
@@ -3942,7 +3975,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hanhua Financial Holding Co., Ltd. (SEHK:3903)</t>
+          <t>International Alliance Financial Leasing Co., Ltd. (SEHK:1563)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3950,12 +3983,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D29">
-        <v>-0.0528</v>
-      </c>
-      <c r="E29">
-        <v>-0.0898</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -3963,103 +3990,94 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.0305443474108444</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.02132341234341968</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>37.4</v>
+        <v>-16.6</v>
       </c>
       <c r="L29">
-        <v>0.2094064949608063</v>
+        <v>-8.877005347593583</v>
       </c>
       <c r="M29">
-        <v>26.8</v>
+        <v>-0</v>
       </c>
       <c r="N29">
-        <v>0.1193763919821826</v>
+        <v>-0</v>
       </c>
       <c r="O29">
-        <v>0.716577540106952</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>26.8</v>
+        <v>-0</v>
       </c>
       <c r="Q29">
-        <v>0.1193763919821826</v>
+        <v>-0</v>
       </c>
       <c r="R29">
-        <v>0.716577540106952</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
-        <v>227.6</v>
+        <v>50.5</v>
       </c>
       <c r="V29">
-        <v>1.01380846325167</v>
+        <v>0.3000594177064765</v>
       </c>
       <c r="W29">
-        <v>0.03627546071774976</v>
+        <v>-0.09031556039173014</v>
       </c>
       <c r="X29">
-        <v>0.06360911621159168</v>
+        <v>0.0296720355256443</v>
       </c>
       <c r="Y29">
-        <v>-0.02733365549384192</v>
+        <v>-0.1199875959173744</v>
       </c>
       <c r="Z29">
-        <v>0.07915074186852661</v>
+        <v>0.004341769212909219</v>
       </c>
       <c r="AA29">
-        <v>0.001687763906150165</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.03531766708886847</v>
+        <v>0.02295102700323683</v>
       </c>
       <c r="AC29">
-        <v>-0.0336299031827183</v>
+        <v>-0.02295102700323683</v>
       </c>
       <c r="AD29">
-        <v>1196.3</v>
+        <v>291</v>
       </c>
       <c r="AE29">
-        <v>12.32389776211595</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>1208.623897762116</v>
+        <v>291</v>
       </c>
       <c r="AG29">
-        <v>981.0238977621158</v>
+        <v>240.5</v>
       </c>
       <c r="AH29">
-        <v>0.8433492035471837</v>
+        <v>0.6335728282168517</v>
       </c>
       <c r="AI29">
-        <v>0.5158613555124661</v>
+        <v>0.6419589675711449</v>
       </c>
       <c r="AJ29">
-        <v>0.81377391156098</v>
+        <v>0.5883072407045009</v>
       </c>
       <c r="AK29">
-        <v>0.4637700632040225</v>
+        <v>0.5970705064548163</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
         <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>151.0479797979798</v>
-      </c>
-      <c r="AP29">
-        <v>123.8666537578429</v>
       </c>
     </row>
     <row r="30">
@@ -4070,7 +4088,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AVIC Capital Co., Ltd. (SHSE:600705)</t>
+          <t>AVIC Capital Co.,Ltd (SHSE:600705)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4079,115 +4097,115 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.201</v>
+        <v>0.168</v>
       </c>
       <c r="E30">
-        <v>0.134</v>
+        <v>0.111</v>
       </c>
       <c r="G30">
-        <v>0.0007717147392042033</v>
+        <v>0.0005810882197569995</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.004207086578995304</v>
+        <v>0.002191782520656748</v>
       </c>
       <c r="J30">
-        <v>0.003073568506608649</v>
+        <v>0.001630922347020678</v>
       </c>
       <c r="K30">
-        <v>429.2</v>
+        <v>532.6</v>
       </c>
       <c r="L30">
-        <v>0.234907777352088</v>
+        <v>0.2344602923049833</v>
       </c>
       <c r="M30">
-        <v>980.6</v>
+        <v>1115.9</v>
       </c>
       <c r="N30">
-        <v>0.1600169710024314</v>
+        <v>0.1883534475483163</v>
       </c>
       <c r="O30">
-        <v>2.284715750232992</v>
+        <v>2.095193390912505</v>
       </c>
       <c r="P30">
-        <v>980.6</v>
+        <v>968.6</v>
       </c>
       <c r="Q30">
-        <v>0.1600169710024314</v>
+        <v>0.1634905899232003</v>
       </c>
       <c r="R30">
-        <v>2.284715750232992</v>
+        <v>1.818625610214044</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>147.3000000000001</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.1320010753651761</v>
       </c>
       <c r="U30">
-        <v>7286.5</v>
+        <v>9015.5</v>
       </c>
       <c r="V30">
-        <v>1.189030857851536</v>
+        <v>1.521731791712381</v>
       </c>
       <c r="W30">
-        <v>0.1189216148070156</v>
+        <v>0.1322671169940646</v>
       </c>
       <c r="X30">
-        <v>0.04620684026542565</v>
+        <v>0.04567505109667686</v>
       </c>
       <c r="Y30">
-        <v>0.07271477454158995</v>
+        <v>0.08659206589738777</v>
       </c>
       <c r="Z30">
-        <v>0.1733789830776083</v>
+        <v>0.1669039180080243</v>
       </c>
       <c r="AA30">
-        <v>0.000532892182095171</v>
+        <v>0.0002722073296845938</v>
       </c>
       <c r="AB30">
-        <v>0.03436599095316964</v>
+        <v>0.02424655463982183</v>
       </c>
       <c r="AC30">
-        <v>-0.03383309877107447</v>
+        <v>-0.02397434731013724</v>
       </c>
       <c r="AD30">
-        <v>16830.9</v>
+        <v>24455.3</v>
       </c>
       <c r="AE30">
-        <v>30.5661605575884</v>
+        <v>40.60573413038065</v>
       </c>
       <c r="AF30">
-        <v>16861.46616055759</v>
+        <v>24495.90573413038</v>
       </c>
       <c r="AG30">
-        <v>9574.966160557589</v>
+        <v>15480.40573413038</v>
       </c>
       <c r="AH30">
-        <v>0.7334399458779797</v>
+        <v>0.8052458585931033</v>
       </c>
       <c r="AI30">
-        <v>0.7320166417730334</v>
+        <v>0.7604565170719563</v>
       </c>
       <c r="AJ30">
-        <v>0.6097513735634416</v>
+        <v>0.7232176551680247</v>
       </c>
       <c r="AK30">
-        <v>0.6080205956156111</v>
+        <v>0.6673565051525296</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>-291.6</v>
+        <v>-341.3</v>
       </c>
       <c r="AN30">
-        <v>1219.630434782609</v>
+        <v>1866.81679389313</v>
       </c>
       <c r="AP30">
-        <v>693.8381275766369</v>
+        <v>1181.710361383999</v>
       </c>
       <c r="AQ30">
         <v>-0</v>
@@ -4216,91 +4234,91 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2.239482889066151e-05</v>
+        <v>6.560836527835006e-05</v>
       </c>
       <c r="J31">
-        <v>1.678813492445453e-05</v>
+        <v>4.92016076454426e-05</v>
       </c>
       <c r="K31">
-        <v>210.2</v>
+        <v>263.6</v>
       </c>
       <c r="L31">
-        <v>0.7448618001417434</v>
+        <v>0.6524752475247525</v>
       </c>
       <c r="M31">
-        <v>116.7</v>
+        <v>178.6</v>
       </c>
       <c r="N31">
-        <v>0.04304843409937659</v>
+        <v>0.07085333439124054</v>
       </c>
       <c r="O31">
-        <v>0.5551855375832541</v>
+        <v>0.6775417298937785</v>
       </c>
       <c r="P31">
-        <v>116.7</v>
+        <v>154.3</v>
       </c>
       <c r="Q31">
-        <v>0.04304843409937659</v>
+        <v>0.06121315507597097</v>
       </c>
       <c r="R31">
-        <v>0.5551855375832541</v>
+        <v>0.5853566009104704</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>24.30000000000001</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.1360582306830908</v>
       </c>
       <c r="U31">
-        <v>109.6</v>
+        <v>219.2</v>
       </c>
       <c r="V31">
-        <v>0.04042937769744365</v>
+        <v>0.08695997143650573</v>
       </c>
       <c r="W31">
-        <v>0.1346572709801409</v>
+        <v>0.1621455373070062</v>
       </c>
       <c r="X31">
-        <v>0.04431588022613324</v>
+        <v>0.04058521662830937</v>
       </c>
       <c r="Y31">
-        <v>0.0903413907540077</v>
+        <v>0.1215603206786969</v>
       </c>
       <c r="Z31">
-        <v>0.03766265006020123</v>
+        <v>0.0492698100061974</v>
       </c>
       <c r="AA31">
-        <v>6.322856508231738e-07</v>
+        <v>2.424153860690426e-06</v>
       </c>
       <c r="AB31">
-        <v>0.03417550262023396</v>
+        <v>0.02398920519821005</v>
       </c>
       <c r="AC31">
-        <v>-0.03417487033458314</v>
+        <v>-0.02398678104434936</v>
       </c>
       <c r="AD31">
-        <v>6683.6</v>
+        <v>8493.6</v>
       </c>
       <c r="AE31">
-        <v>0.0934008964352766</v>
+        <v>0.04747110213773287</v>
       </c>
       <c r="AF31">
-        <v>6683.693400896435</v>
+        <v>8493.647471102138</v>
       </c>
       <c r="AG31">
-        <v>6574.093400896435</v>
+        <v>8274.447471102138</v>
       </c>
       <c r="AH31">
-        <v>0.7114404121266892</v>
+        <v>0.771143955044686</v>
       </c>
       <c r="AI31">
-        <v>0.8043539496126617</v>
+        <v>0.8213765489233892</v>
       </c>
       <c r="AJ31">
-        <v>0.7080342566815102</v>
+        <v>0.7664969370036178</v>
       </c>
       <c r="AK31">
-        <v>0.8017389072482886</v>
+        <v>0.8175081423790557</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -4309,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>267344</v>
+        <v>235933.3333333334</v>
       </c>
       <c r="AP31">
-        <v>262963.7360358574</v>
+        <v>229845.7630861705</v>
       </c>
     </row>
     <row r="32">
@@ -4323,7 +4341,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Yixin Group Limited (SEHK:2858)</t>
+          <t>Dunxin Financial Holdings Limited (AMEX:DXF)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4332,31 +4350,31 @@
         </is>
       </c>
       <c r="G32">
-        <v>0.03324287652645862</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0.001532805179138894</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.0009812275578578527</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>16.9</v>
+        <v>3.15</v>
       </c>
       <c r="L32">
-        <v>0.01910900045228403</v>
+        <v>0.799492385786802</v>
       </c>
       <c r="M32">
-        <v>1.01</v>
+        <v>-0</v>
       </c>
       <c r="N32">
-        <v>0.000713478383724216</v>
+        <v>-0</v>
       </c>
       <c r="O32">
-        <v>0.05976331360946746</v>
+        <v>-0</v>
       </c>
       <c r="P32">
         <v>-0</v>
@@ -4368,76 +4386,64 @@
         <v>-0</v>
       </c>
       <c r="S32">
-        <v>1.01</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>249.2</v>
+        <v>0.013</v>
       </c>
       <c r="V32">
-        <v>0.1760384289347273</v>
+        <v>0.0004693140794223827</v>
       </c>
       <c r="W32">
-        <v>0.007355181268224747</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="X32">
-        <v>0.0470321033319742</v>
+        <v>0.02398156777002038</v>
       </c>
       <c r="Y32">
-        <v>-0.03967692206374945</v>
+        <v>0.04332612453767193</v>
       </c>
       <c r="Z32">
-        <v>0.139991599400803</v>
+        <v>0.05233793836344314</v>
       </c>
       <c r="AA32">
-        <v>0.0001373636152006647</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0.03444031392103103</v>
+        <v>0.02399665686162427</v>
       </c>
       <c r="AC32">
-        <v>-0.03430295030583037</v>
+        <v>-0.02399665686162427</v>
       </c>
       <c r="AD32">
-        <v>4053.8</v>
+        <v>24.2</v>
       </c>
       <c r="AE32">
-        <v>17.92193549784781</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>4071.721935497848</v>
+        <v>24.2</v>
       </c>
       <c r="AG32">
-        <v>3822.521935497848</v>
+        <v>24.187</v>
       </c>
       <c r="AH32">
-        <v>0.7420235195528824</v>
+        <v>0.4662813102119461</v>
       </c>
       <c r="AI32">
-        <v>0.6406488581009189</v>
+        <v>0.2843713278495887</v>
       </c>
       <c r="AJ32">
-        <v>0.729750468310651</v>
+        <v>0.4661475899550947</v>
       </c>
       <c r="AK32">
-        <v>0.6259839192042669</v>
+        <v>0.2842619906683747</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>-13.8</v>
-      </c>
-      <c r="AN32">
-        <v>820.6072874493926</v>
-      </c>
-      <c r="AP32">
-        <v>773.7898654853943</v>
-      </c>
-      <c r="AQ32">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4448,7 +4454,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bohai Leasing Co., Ltd. (SZSE:000415)</t>
+          <t>Hanhua Financial Holding Co., Ltd. (SEHK:3903)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4457,10 +4463,10 @@
         </is>
       </c>
       <c r="D33">
-        <v>0.369</v>
+        <v>-0.03240000000000001</v>
       </c>
       <c r="E33">
-        <v>0.112</v>
+        <v>-0.0799</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4469,106 +4475,94 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>-0.004470239379408121</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>-0.004167955889153793</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>269.3</v>
+        <v>35.8</v>
       </c>
       <c r="L33">
-        <v>0.0701777245009642</v>
+        <v>0.2168382798304058</v>
       </c>
       <c r="M33">
-        <v>1231.8</v>
+        <v>-0</v>
       </c>
       <c r="N33">
-        <v>0.3659753996078198</v>
+        <v>-0</v>
       </c>
       <c r="O33">
-        <v>4.574080950612699</v>
+        <v>-0</v>
       </c>
       <c r="P33">
-        <v>1231.8</v>
+        <v>-0</v>
       </c>
       <c r="Q33">
-        <v>0.3659753996078198</v>
+        <v>-0</v>
       </c>
       <c r="R33">
-        <v>4.574080950612699</v>
+        <v>-0</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
       <c r="U33">
-        <v>1718.4</v>
+        <v>174.5</v>
       </c>
       <c r="V33">
-        <v>0.510547269594153</v>
+        <v>1.05057194461168</v>
       </c>
       <c r="W33">
-        <v>0.05209905204101374</v>
+        <v>0.03462282398452611</v>
       </c>
       <c r="X33">
-        <v>0.08100943969333352</v>
+        <v>0.04996161479419801</v>
       </c>
       <c r="Y33">
-        <v>-0.02891038765231978</v>
+        <v>-0.0153387908096719</v>
       </c>
       <c r="Z33">
-        <v>0.1108619505641527</v>
+        <v>0.08249720179085385</v>
       </c>
       <c r="AA33">
-        <v>-0.0004620677197369369</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.03571363291262612</v>
+        <v>0.02441042865923242</v>
       </c>
       <c r="AC33">
-        <v>-0.03617570063236306</v>
+        <v>-0.02441042865923242</v>
       </c>
       <c r="AD33">
-        <v>26866</v>
+        <v>793.8</v>
       </c>
       <c r="AE33">
-        <v>112.4204829727036</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>26978.4204829727</v>
+        <v>793.8</v>
       </c>
       <c r="AG33">
-        <v>25260.0204829727</v>
+        <v>619.3</v>
       </c>
       <c r="AH33">
-        <v>0.8890793717410312</v>
+        <v>0.8269611417856026</v>
       </c>
       <c r="AI33">
-        <v>0.7757787603690351</v>
+        <v>0.4108482997774442</v>
       </c>
       <c r="AJ33">
-        <v>0.8824208374393302</v>
+        <v>0.788515406162465</v>
       </c>
       <c r="AK33">
-        <v>0.7641232649612562</v>
+        <v>0.3523554847519345</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
-        <v>-171.2</v>
-      </c>
-      <c r="AN33">
-        <v>5040.525328330206</v>
-      </c>
-      <c r="AP33">
-        <v>4739.215850463921</v>
-      </c>
-      <c r="AQ33">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4579,7 +4573,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>China Rongzhong Financial Holdings Company Limited (SEHK:3963)</t>
+          <t>Zuoli Kechuang Micro-finance Company Limited (SEHK:6866)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4587,6 +4581,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D34">
+        <v>0.0429</v>
+      </c>
+      <c r="E34">
+        <v>-0.0131</v>
+      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -4594,16 +4594,16 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.0005215533720389239</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.0005215533720389239</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>-4.46</v>
+        <v>17.8</v>
       </c>
       <c r="L34">
-        <v>-0.3596774193548387</v>
+        <v>0.5281899109792285</v>
       </c>
       <c r="M34">
         <v>-0</v>
@@ -4612,7 +4612,7 @@
         <v>-0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P34">
         <v>-0</v>
@@ -4621,73 +4621,67 @@
         <v>-0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>4.37</v>
+        <v>3.09</v>
       </c>
       <c r="V34">
-        <v>0.1680769230769231</v>
+        <v>0.0597678916827853</v>
       </c>
       <c r="W34">
-        <v>-0.2973333333333333</v>
+        <v>0.07722342733188721</v>
       </c>
       <c r="X34">
-        <v>0.04818232036576619</v>
+        <v>0.02893961510691216</v>
       </c>
       <c r="Y34">
-        <v>-0.3455156536990995</v>
+        <v>0.04828381222497505</v>
       </c>
       <c r="Z34">
-        <v>0.1310676061139042</v>
+        <v>0.1073761350963836</v>
       </c>
       <c r="AA34">
-        <v>6.835875193377623e-05</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0.03668260783927713</v>
+        <v>0.02589471119924717</v>
       </c>
       <c r="AC34">
-        <v>-0.03661424908734336</v>
+        <v>-0.02589471119924717</v>
       </c>
       <c r="AD34">
-        <v>79.3</v>
+        <v>83.7</v>
       </c>
       <c r="AE34">
-        <v>0.007663690933586717</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>79.30766369093358</v>
+        <v>83.7</v>
       </c>
       <c r="AG34">
-        <v>74.93766369093358</v>
+        <v>80.61</v>
       </c>
       <c r="AH34">
-        <v>0.7531043887146984</v>
+        <v>0.6181683899556869</v>
       </c>
       <c r="AI34">
-        <v>0.885054474408285</v>
+        <v>0.2361738148984199</v>
       </c>
       <c r="AJ34">
-        <v>0.7424152784077628</v>
+        <v>0.6092510014360214</v>
       </c>
       <c r="AK34">
-        <v>0.879161399386225</v>
+        <v>0.2294554666818479</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>9912.5</v>
-      </c>
-      <c r="AP34">
-        <v>9367.207961366697</v>
       </c>
     </row>
     <row r="35">
@@ -4698,7 +4692,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Haitong UniTrust International Leasing Co., Ltd. (SEHK:1905)</t>
+          <t>China Development Bank Financial Leasing Co., Ltd. (SEHK:1606)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4706,9 +4700,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F35">
-        <v>0.18</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -4716,34 +4707,34 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.005474330888521525</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.004123071998316845</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>183.3</v>
+        <v>398.7</v>
       </c>
       <c r="L35">
-        <v>0.2228571428571429</v>
+        <v>0.272280270436386</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>159.7</v>
       </c>
       <c r="N35">
-        <v>0.003940997635401419</v>
+        <v>0.08516424914675767</v>
       </c>
       <c r="O35">
-        <v>0.03818876159301691</v>
+        <v>0.400551793328317</v>
       </c>
       <c r="P35">
-        <v>7</v>
+        <v>159.7</v>
       </c>
       <c r="Q35">
-        <v>0.003940997635401419</v>
+        <v>0.08516424914675767</v>
       </c>
       <c r="R35">
-        <v>0.03818876159301691</v>
+        <v>0.400551793328317</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4752,70 +4743,61 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>673.3</v>
+        <v>3744.1</v>
       </c>
       <c r="V35">
-        <v>0.3790676725593964</v>
+        <v>1.996640358361775</v>
       </c>
       <c r="W35">
-        <v>0.1038880072545908</v>
+        <v>0.1141850674456568</v>
       </c>
       <c r="X35">
-        <v>0.06037964493168069</v>
+        <v>0.1393950383486395</v>
       </c>
       <c r="Y35">
-        <v>0.04350836232291011</v>
+        <v>-0.02520997090298266</v>
       </c>
       <c r="Z35">
-        <v>0.09519800637274477</v>
+        <v>0.04930435836655533</v>
       </c>
       <c r="AA35">
-        <v>0.0003925082343710525</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>0.03757183083524258</v>
+        <v>0.02667094926843468</v>
       </c>
       <c r="AC35">
-        <v>-0.03717932260087153</v>
+        <v>-0.02667094926843468</v>
       </c>
       <c r="AD35">
-        <v>8687.200000000001</v>
+        <v>34171.7</v>
       </c>
       <c r="AE35">
-        <v>7.586814220955226</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>8694.786814220955</v>
+        <v>34171.7</v>
       </c>
       <c r="AG35">
-        <v>8021.486814220955</v>
+        <v>30427.6</v>
       </c>
       <c r="AH35">
-        <v>0.8303693785968967</v>
+        <v>0.9479788830662277</v>
       </c>
       <c r="AI35">
-        <v>0.801807210132208</v>
+        <v>0.90698853381463</v>
       </c>
       <c r="AJ35">
-        <v>0.8187123110097869</v>
+        <v>0.9419493047042361</v>
       </c>
       <c r="AK35">
-        <v>0.7886868370585431</v>
+        <v>0.8967255001930337</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>-14.2</v>
-      </c>
-      <c r="AN35">
-        <v>1443.056478405316</v>
-      </c>
-      <c r="AP35">
-        <v>1332.472892727734</v>
-      </c>
-      <c r="AQ35">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4826,7 +4808,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Zuoli Kechuang Micro-finance Company Limited (SEHK:6866)</t>
+          <t>Shanghai Dongzheng Automotive Finance Co., Ltd. (SEHK:2718)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4834,12 +4816,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D36">
-        <v>0.213</v>
-      </c>
-      <c r="E36">
-        <v>0.129</v>
-      </c>
       <c r="G36">
         <v>0</v>
       </c>
@@ -4847,34 +4823,34 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0.00859040235181667</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0.006425620959158869</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>19.5</v>
+        <v>46.8</v>
       </c>
       <c r="L36">
-        <v>0.5668604651162791</v>
+        <v>0.6256684491978609</v>
       </c>
       <c r="M36">
-        <v>21.24</v>
+        <v>24.2</v>
       </c>
       <c r="N36">
-        <v>0.2889795918367347</v>
+        <v>0.1486486486486486</v>
       </c>
       <c r="O36">
-        <v>1.089230769230769</v>
+        <v>0.5170940170940171</v>
       </c>
       <c r="P36">
-        <v>21.24</v>
+        <v>24.2</v>
       </c>
       <c r="Q36">
-        <v>0.2889795918367347</v>
+        <v>0.1486486486486486</v>
       </c>
       <c r="R36">
-        <v>1.089230769230769</v>
+        <v>0.5170940170940171</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4883,67 +4859,61 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>0.01727891156462585</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0.08087930319369556</v>
+        <v>0.08048151332760102</v>
       </c>
       <c r="X36">
-        <v>0.03597227037456062</v>
+        <v>0.04202502176542966</v>
       </c>
       <c r="Y36">
-        <v>0.04490703281913494</v>
+        <v>0.03845649156217136</v>
       </c>
       <c r="Z36">
-        <v>0.1053574732098439</v>
+        <v>0.04426297414048168</v>
       </c>
       <c r="AA36">
-        <v>0.0006769871880611919</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0.0378649402045558</v>
+        <v>0.02794134055923009</v>
       </c>
       <c r="AC36">
-        <v>-0.03718795301649461</v>
+        <v>-0.02794134055923009</v>
       </c>
       <c r="AD36">
-        <v>87.90000000000001</v>
+        <v>583.8</v>
       </c>
       <c r="AE36">
-        <v>0.5574507954875328</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>88.45745079548753</v>
+        <v>583.8</v>
       </c>
       <c r="AG36">
-        <v>87.18745079548754</v>
+        <v>583.8</v>
       </c>
       <c r="AH36">
-        <v>0.5461770999791022</v>
+        <v>0.7819448165014734</v>
       </c>
       <c r="AI36">
-        <v>0.264717876512727</v>
+        <v>0.49829293274155</v>
       </c>
       <c r="AJ36">
-        <v>0.5425902916740774</v>
+        <v>0.7819448165014734</v>
       </c>
       <c r="AK36">
-        <v>0.2619126992836144</v>
+        <v>0.49829293274155</v>
       </c>
       <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36">
         <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>215.970515970516</v>
-      </c>
-      <c r="AP36">
-        <v>214.2197808242937</v>
       </c>
     </row>
     <row r="37">
@@ -4954,7 +4924,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>China Lending Corporation (OTCPK:CLDO.F)</t>
+          <t>China Rongzhong Financial Holdings Company Limited (SEHK:3963)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4975,10 +4945,10 @@
         <v>-0</v>
       </c>
       <c r="K37">
-        <v>-68.8</v>
+        <v>-6.03</v>
       </c>
       <c r="L37">
-        <v>0.9942196531791907</v>
+        <v>5.532110091743119</v>
       </c>
       <c r="M37">
         <v>-0</v>
@@ -5002,55 +4972,55 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>0.406</v>
+        <v>2.06</v>
       </c>
       <c r="V37">
-        <v>0.401980198019802</v>
+        <v>0.1548872180451128</v>
       </c>
       <c r="W37">
-        <v>-11.24183006535948</v>
+        <v>-0.5854368932038835</v>
       </c>
       <c r="X37">
-        <v>0.6178127424819325</v>
+        <v>0.05918417798603065</v>
       </c>
       <c r="Y37">
-        <v>-11.85964280784141</v>
+        <v>-0.6446210711899141</v>
       </c>
       <c r="Z37">
-        <v>-1.222420463177234</v>
+        <v>-0.01278892408776253</v>
       </c>
       <c r="AA37">
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>0.03939648605279365</v>
+        <v>0.02892226321640236</v>
       </c>
       <c r="AC37">
-        <v>-0.03939648605279365</v>
+        <v>-0.02892226321640236</v>
       </c>
       <c r="AD37">
-        <v>90.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>90.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="AG37">
-        <v>89.69399999999999</v>
+        <v>79.94</v>
       </c>
       <c r="AH37">
-        <v>0.9889144989573043</v>
+        <v>0.8604407135362014</v>
       </c>
       <c r="AI37">
-        <v>2.422043010752688</v>
+        <v>0.9476482144920837</v>
       </c>
       <c r="AJ37">
-        <v>0.9888648791674016</v>
+        <v>0.8573573573573574</v>
       </c>
       <c r="AK37">
-        <v>2.437734413219547</v>
+        <v>0.9463714928376938</v>
       </c>
       <c r="AL37">
         <v>0</v>
@@ -5067,7 +5037,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dragon Victory International Limited (NasdaqCM:LYL)</t>
+          <t>Zhongguancun Science-Tech Leasing Co., Ltd. (SEHK:1601)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5076,109 +5046,103 @@
         </is>
       </c>
       <c r="G38">
-        <v>-0.3695652173913044</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>-0.3695652173913044</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>-0.3863090711415132</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>-0.3863090711415132</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>-1.06</v>
+        <v>20.1</v>
       </c>
       <c r="L38">
-        <v>-0.3840579710144928</v>
+        <v>0.4975247524752476</v>
       </c>
       <c r="M38">
-        <v>-0</v>
+        <v>4.95</v>
       </c>
       <c r="N38">
-        <v>-0</v>
+        <v>0.02398255813953488</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="P38">
-        <v>-0</v>
+        <v>4.95</v>
       </c>
       <c r="Q38">
-        <v>-0</v>
+        <v>0.02398255813953488</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
       <c r="U38">
-        <v>0.039</v>
+        <v>74</v>
       </c>
       <c r="V38">
-        <v>0.002635135135135135</v>
+        <v>0.3585271317829457</v>
       </c>
       <c r="W38">
-        <v>-0.09549549549549551</v>
+        <v>0.1040372670807454</v>
       </c>
       <c r="X38">
-        <v>0.0281395401007687</v>
+        <v>0.03599313972758785</v>
       </c>
       <c r="Y38">
-        <v>-0.1236350355962642</v>
+        <v>0.06804412735315751</v>
       </c>
       <c r="Z38">
-        <v>0.3785455116911264</v>
+        <v>0.06084337349397589</v>
       </c>
       <c r="AA38">
-        <v>-0.1462355650061879</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>0.02876283337491188</v>
+        <v>0.02955272763692326</v>
       </c>
       <c r="AC38">
-        <v>-0.1749983983810998</v>
+        <v>-0.02955272763692326</v>
       </c>
       <c r="AD38">
-        <v>0.147</v>
+        <v>553</v>
       </c>
       <c r="AE38">
-        <v>0.1310651817528818</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>0.2780651817528818</v>
+        <v>553</v>
       </c>
       <c r="AG38">
-        <v>0.2390651817528817</v>
+        <v>479</v>
       </c>
       <c r="AH38">
-        <v>0.01844170179668607</v>
+        <v>0.7282064787990519</v>
       </c>
       <c r="AI38">
-        <v>0.02897096201029332</v>
+        <v>0.6807829619598671</v>
       </c>
       <c r="AJ38">
-        <v>0.01589627938064548</v>
+        <v>0.6988619784067698</v>
       </c>
       <c r="AK38">
-        <v>0.02500926368921814</v>
+        <v>0.6487877556548829</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>-0.636</v>
-      </c>
-      <c r="AN38">
-        <v>-0.1563829787234042</v>
-      </c>
-      <c r="AP38">
-        <v>-0.2543246614392359</v>
-      </c>
-      <c r="AQ38">
-        <v>1.761006289308176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5189,7 +5153,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Panda Financial Holding Corp., Ltd. (SHSE:600599)</t>
+          <t>Haitong Unitrust International Financial Leasing Co., Ltd. (SEHK:1905)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5198,43 +5162,46 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.035</v>
+        <v>0.101</v>
+      </c>
+      <c r="E39">
+        <v>0.211</v>
       </c>
       <c r="G39">
-        <v>-0.1128510638297872</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>-0.1285106382978723</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>-0.8340425531914895</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>-0.8340425531914895</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>-6.62</v>
+        <v>168.3</v>
       </c>
       <c r="L39">
-        <v>-0.2817021276595745</v>
+        <v>0.3454433497536946</v>
       </c>
       <c r="M39">
-        <v>0.377</v>
+        <v>121.4</v>
       </c>
       <c r="N39">
-        <v>0.001503189792663477</v>
+        <v>0.08048796658489692</v>
       </c>
       <c r="O39">
-        <v>-0.05694864048338368</v>
+        <v>0.7213309566250743</v>
       </c>
       <c r="P39">
-        <v>0.377</v>
+        <v>121.4</v>
       </c>
       <c r="Q39">
-        <v>0.001503189792663477</v>
+        <v>0.08048796658489692</v>
       </c>
       <c r="R39">
-        <v>-0.05694864048338368</v>
+        <v>0.7213309566250743</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -5243,73 +5210,67 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>26.2</v>
+        <v>919.3</v>
       </c>
       <c r="V39">
-        <v>0.1044657097288676</v>
+        <v>0.6094941324670158</v>
       </c>
       <c r="W39">
-        <v>-0.0658051689860835</v>
+        <v>0.07834830780689912</v>
       </c>
       <c r="X39">
-        <v>0.02836593155746813</v>
+        <v>0.04599068159971212</v>
       </c>
       <c r="Y39">
-        <v>-0.09417110054355164</v>
+        <v>0.032357626207187</v>
       </c>
       <c r="Z39">
-        <v>0.2153987167736022</v>
+        <v>0.04794331824444006</v>
       </c>
       <c r="AA39">
-        <v>-0.1796516956920257</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>0.02845137401447017</v>
+        <v>0.03078484041186878</v>
       </c>
       <c r="AC39">
-        <v>-0.2081030697064959</v>
+        <v>-0.03078484041186878</v>
       </c>
       <c r="AD39">
-        <v>13.3</v>
+        <v>6307.9</v>
       </c>
       <c r="AE39">
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>13.3</v>
+        <v>6307.9</v>
       </c>
       <c r="AG39">
-        <v>-12.9</v>
+        <v>5388.599999999999</v>
       </c>
       <c r="AH39">
-        <v>0.05035971223021583</v>
+        <v>0.8070289910698293</v>
       </c>
       <c r="AI39">
-        <v>0.1270296084049666</v>
+        <v>0.7330761095680267</v>
       </c>
       <c r="AJ39">
-        <v>-0.05422446406052963</v>
+        <v>0.7813075439690296</v>
       </c>
       <c r="AK39">
-        <v>-0.1643312101910828</v>
+        <v>0.7011476305722538</v>
       </c>
       <c r="AL39">
-        <v>1.21</v>
+        <v>14</v>
       </c>
       <c r="AM39">
-        <v>-5.22</v>
-      </c>
-      <c r="AN39">
-        <v>-0.6855670103092785</v>
+        <v>14</v>
       </c>
       <c r="AO39">
-        <v>-16.19834710743802</v>
-      </c>
-      <c r="AP39">
-        <v>0.6649484536082474</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
-        <v>3.754789272030652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5320,7 +5281,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Senmiao Technology Limited (NasdaqCM:AIHS)</t>
+          <t>Panda Financial Holding Corp., Ltd. (SHSE:600599)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5328,113 +5289,119 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D40">
+        <v>-0.08539999999999999</v>
+      </c>
       <c r="G40">
-        <v>-0.2109489051094891</v>
+        <v>-0.5361702127659574</v>
       </c>
       <c r="H40">
-        <v>-0.2109489051094891</v>
+        <v>-0.5361702127659574</v>
       </c>
       <c r="I40">
-        <v>-0.1676057925219464</v>
+        <v>-0.1527659574468085</v>
       </c>
       <c r="J40">
-        <v>-0.1676057925219464</v>
+        <v>-0.1527659574468085</v>
       </c>
       <c r="K40">
-        <v>-2.32</v>
+        <v>-7.03</v>
       </c>
       <c r="L40">
-        <v>-0.1693430656934307</v>
+        <v>-0.2991489361702128</v>
       </c>
       <c r="M40">
-        <v>-0</v>
+        <v>0.267</v>
       </c>
       <c r="N40">
-        <v>-0</v>
+        <v>0.002238055322715842</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>-0.0379800853485064</v>
       </c>
       <c r="P40">
-        <v>-0</v>
+        <v>0.267</v>
       </c>
       <c r="Q40">
-        <v>-0</v>
+        <v>0.002238055322715842</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>-0.0379800853485064</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
       <c r="U40">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="V40">
-        <v>0.1336842105263158</v>
+        <v>0.01994970662196144</v>
       </c>
       <c r="W40">
-        <v>-0.209009009009009</v>
+        <v>-0.07691466083150984</v>
       </c>
       <c r="X40">
-        <v>0.02874119322055756</v>
+        <v>0.01891140695406994</v>
       </c>
       <c r="Y40">
-        <v>-0.2377502022295666</v>
+        <v>-0.09582606778557978</v>
       </c>
       <c r="Z40">
-        <v>5.694105690304273</v>
+        <v>0.2993630573248408</v>
       </c>
       <c r="AA40">
-        <v>-0.9543650969271721</v>
+        <v>-0.04573248407643312</v>
       </c>
       <c r="AB40">
-        <v>0.02915385989753825</v>
+        <v>0.01942319830676282</v>
       </c>
       <c r="AC40">
-        <v>-0.9835189568247104</v>
+        <v>-0.06515568238319594</v>
       </c>
       <c r="AD40">
-        <v>1.72</v>
+        <v>13.3</v>
       </c>
       <c r="AE40">
-        <v>0.3659967877533221</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>2.085996787753322</v>
+        <v>13.3</v>
       </c>
       <c r="AG40">
-        <v>-0.4540032122466782</v>
+        <v>10.92</v>
       </c>
       <c r="AH40">
-        <v>0.09892806153536274</v>
+        <v>0.1003016591251885</v>
       </c>
       <c r="AI40">
-        <v>0.1535402091095502</v>
+        <v>0.1297560975609756</v>
       </c>
       <c r="AJ40">
-        <v>-0.02447984961080523</v>
+        <v>0.08385808631546615</v>
       </c>
       <c r="AK40">
-        <v>-0.04110115374558417</v>
+        <v>0.1090691170595286</v>
       </c>
       <c r="AL40">
-        <v>0.096</v>
+        <v>1.09</v>
       </c>
       <c r="AM40">
-        <v>0.096</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="AN40">
-        <v>-0.8673726676752396</v>
+        <v>-3.8</v>
       </c>
       <c r="AO40">
-        <v>-25.3125</v>
+        <v>-3.293577981651376</v>
       </c>
       <c r="AP40">
-        <v>0.2289476612439124</v>
+        <v>-3.120000000000001</v>
       </c>
       <c r="AQ40">
-        <v>-25.3125</v>
+        <v>-25.64285714285712</v>
       </c>
     </row>
     <row r="41">
@@ -5445,7 +5412,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Beijing Compass Technology Development Co., Ltd. (SZSE:300803)</t>
+          <t>Weidai Ltd. (NYSE:WEI)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5453,26 +5420,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D41">
-        <v>0.476</v>
-      </c>
       <c r="G41">
-        <v>0.1045064377682403</v>
+        <v>0.1389136242208371</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.1285247848026121</v>
       </c>
       <c r="I41">
-        <v>0.2564377682403433</v>
+        <v>-0.1311623286735323</v>
       </c>
       <c r="J41">
-        <v>0.2010962351678869</v>
+        <v>-0.1311623286735323</v>
       </c>
       <c r="K41">
-        <v>21.4</v>
+        <v>-62.2</v>
       </c>
       <c r="L41">
-        <v>0.2296137339055794</v>
+        <v>-0.184624517661027</v>
       </c>
       <c r="M41">
         <v>-0</v>
@@ -5481,7 +5445,7 @@
         <v>-0</v>
       </c>
       <c r="O41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>-0</v>
@@ -5490,70 +5454,1067 @@
         <v>-0</v>
       </c>
       <c r="R41">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="U41">
-        <v>112</v>
+        <v>133.8</v>
       </c>
       <c r="V41">
-        <v>0.05083284164662098</v>
+        <v>1.427961579509072</v>
       </c>
       <c r="W41">
-        <v>0.2194871794871795</v>
+        <v>-0.1232659532302814</v>
       </c>
       <c r="X41">
-        <v>0.02802792518761773</v>
+        <v>0.02054054924226053</v>
       </c>
       <c r="Y41">
-        <v>0.1914592542995617</v>
+        <v>-0.143806502472542</v>
       </c>
       <c r="Z41">
-        <v>-22.19047619047618</v>
+        <v>0.6893137748809821</v>
       </c>
       <c r="AA41">
-        <v>-4.462421218487392</v>
+        <v>-0.09041199990013264</v>
       </c>
       <c r="AB41">
-        <v>0.02803721874488493</v>
+        <v>0.02227686297413151</v>
       </c>
       <c r="AC41">
-        <v>-4.490458437232276</v>
+        <v>-0.1126888628742641</v>
       </c>
       <c r="AD41">
-        <v>4.2</v>
+        <v>21.8</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>11.59294265056519</v>
       </c>
       <c r="AF41">
-        <v>4.2</v>
+        <v>33.39294265056519</v>
       </c>
       <c r="AG41">
-        <v>-107.8</v>
+        <v>-100.4070573494348</v>
       </c>
       <c r="AH41">
-        <v>0.001902604756511891</v>
+        <v>0.2627442716656359</v>
       </c>
       <c r="AI41">
-        <v>0.03639514731369151</v>
+        <v>0.1166390702523287</v>
       </c>
       <c r="AJ41">
-        <v>-0.05144356955380577</v>
+        <v>14.97035914832244</v>
       </c>
       <c r="AK41">
-        <v>-31.70588235294112</v>
+        <v>-0.6584374044083849</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AM41">
-        <v>-3.53</v>
+        <v>-3.2</v>
+      </c>
+      <c r="AN41">
+        <v>-0.6094492591557171</v>
+      </c>
+      <c r="AO41">
+        <v>-20.65573770491803</v>
+      </c>
+      <c r="AP41">
+        <v>2.807018656679755</v>
       </c>
       <c r="AQ41">
-        <v>-6.770538243626063</v>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>X Financial (NYSE:XYF)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G42">
+        <v>0.3782498414711478</v>
+      </c>
+      <c r="H42">
+        <v>0.3782498414711478</v>
+      </c>
+      <c r="I42">
+        <v>-0.2064960072474844</v>
+      </c>
+      <c r="J42">
+        <v>-0.2064960072474844</v>
+      </c>
+      <c r="K42">
+        <v>-84.40000000000001</v>
+      </c>
+      <c r="L42">
+        <v>-0.2675967025998732</v>
+      </c>
+      <c r="M42">
+        <v>-0</v>
+      </c>
+      <c r="N42">
+        <v>-0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>-0</v>
+      </c>
+      <c r="Q42">
+        <v>-0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>47.7</v>
+      </c>
+      <c r="V42">
+        <v>0.4457943925233645</v>
+      </c>
+      <c r="W42">
+        <v>-0.1438064406202079</v>
+      </c>
+      <c r="X42">
+        <v>0.02170386159306956</v>
+      </c>
+      <c r="Y42">
+        <v>-0.1655103022132774</v>
+      </c>
+      <c r="Z42">
+        <v>0.6043949476249016</v>
+      </c>
+      <c r="AA42">
+        <v>-0.1248051434850947</v>
+      </c>
+      <c r="AB42">
+        <v>0.02250531746879852</v>
+      </c>
+      <c r="AC42">
+        <v>-0.1473104609538932</v>
+      </c>
+      <c r="AD42">
+        <v>47.5</v>
+      </c>
+      <c r="AE42">
+        <v>9.344203429282926</v>
+      </c>
+      <c r="AF42">
+        <v>56.84420342928293</v>
+      </c>
+      <c r="AG42">
+        <v>9.144203429282925</v>
+      </c>
+      <c r="AH42">
+        <v>0.3469405828190776</v>
+      </c>
+      <c r="AI42">
+        <v>0.09325690099172237</v>
+      </c>
+      <c r="AJ42">
+        <v>0.07873146622294055</v>
+      </c>
+      <c r="AK42">
+        <v>0.01627533642506266</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>-3.34</v>
+      </c>
+      <c r="AN42">
+        <v>-0.7716049382716049</v>
+      </c>
+      <c r="AP42">
+        <v>-0.1485413162651547</v>
+      </c>
+      <c r="AQ42">
+        <v>20.02994011976048</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Dragon Victory International Limited (NasdaqCM:LYL)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G43">
+        <v>-184.5454545454545</v>
+      </c>
+      <c r="H43">
+        <v>-184.5454545454545</v>
+      </c>
+      <c r="I43">
+        <v>-187.6652646059132</v>
+      </c>
+      <c r="J43">
+        <v>-187.6652646059132</v>
+      </c>
+      <c r="K43">
+        <v>-1.42</v>
+      </c>
+      <c r="L43">
+        <v>-129.0909090909091</v>
+      </c>
+      <c r="M43">
+        <v>-0</v>
+      </c>
+      <c r="N43">
+        <v>-0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>-0</v>
+      </c>
+      <c r="Q43">
+        <v>-0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0.016</v>
+      </c>
+      <c r="V43">
+        <v>0.0005970149253731343</v>
+      </c>
+      <c r="W43">
+        <v>-0.1447502548419979</v>
+      </c>
+      <c r="X43">
+        <v>0.01818630926675781</v>
+      </c>
+      <c r="Y43">
+        <v>-0.1629365641087557</v>
+      </c>
+      <c r="Z43">
+        <v>0.001101697765466644</v>
+      </c>
+      <c r="AA43">
+        <v>-0.2067504026720411</v>
+      </c>
+      <c r="AB43">
+        <v>0.01820852335515897</v>
+      </c>
+      <c r="AC43">
+        <v>-0.2249589260272</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0.06658955332522276</v>
+      </c>
+      <c r="AF43">
+        <v>0.06658955332522276</v>
+      </c>
+      <c r="AG43">
+        <v>0.05058955332522276</v>
+      </c>
+      <c r="AH43">
+        <v>0.002478526468462057</v>
+      </c>
+      <c r="AI43">
+        <v>0.008954313378159707</v>
+      </c>
+      <c r="AJ43">
+        <v>0.001884113316199333</v>
+      </c>
+      <c r="AK43">
+        <v>0.006817457421904328</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>-0.668</v>
+      </c>
+      <c r="AN43">
+        <v>-0</v>
+      </c>
+      <c r="AP43">
+        <v>-0.02579783443407586</v>
+      </c>
+      <c r="AQ43">
+        <v>3.173652694610778</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Jiayin Group Inc. (NasdaqGM:JFIN)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G44">
+        <v>0.52711157455683</v>
+      </c>
+      <c r="H44">
+        <v>0.4134515119916579</v>
+      </c>
+      <c r="I44">
+        <v>0.2065242746517995</v>
+      </c>
+      <c r="J44">
+        <v>0.1909592486736433</v>
+      </c>
+      <c r="K44">
+        <v>31.4</v>
+      </c>
+      <c r="L44">
+        <v>0.1637122002085506</v>
+      </c>
+      <c r="M44">
+        <v>-0</v>
+      </c>
+      <c r="N44">
+        <v>-0</v>
+      </c>
+      <c r="O44">
+        <v>-0</v>
+      </c>
+      <c r="P44">
+        <v>-0</v>
+      </c>
+      <c r="Q44">
+        <v>-0</v>
+      </c>
+      <c r="R44">
+        <v>-0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>14</v>
+      </c>
+      <c r="V44">
+        <v>0.0849514563106796</v>
+      </c>
+      <c r="W44">
+        <v>-0.2672340425531915</v>
+      </c>
+      <c r="X44">
+        <v>0.01844520719662258</v>
+      </c>
+      <c r="Y44">
+        <v>-0.2856792497498141</v>
+      </c>
+      <c r="Z44">
+        <v>-1.314988585383061</v>
+      </c>
+      <c r="AA44">
+        <v>-0.2511092322791665</v>
+      </c>
+      <c r="AB44">
+        <v>0.01911759593689395</v>
+      </c>
+      <c r="AC44">
+        <v>-0.2702268282160605</v>
+      </c>
+      <c r="AD44">
+        <v>1.88</v>
+      </c>
+      <c r="AE44">
+        <v>4.943220608924249</v>
+      </c>
+      <c r="AF44">
+        <v>6.823220608924249</v>
+      </c>
+      <c r="AG44">
+        <v>-7.176779391075751</v>
+      </c>
+      <c r="AH44">
+        <v>0.03975697801681649</v>
+      </c>
+      <c r="AI44">
+        <v>-0.09112598945110985</v>
+      </c>
+      <c r="AJ44">
+        <v>-0.04553123177759393</v>
+      </c>
+      <c r="AK44">
+        <v>0.08074976884003046</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>-1.99</v>
+      </c>
+      <c r="AN44">
+        <v>0.0428246013667426</v>
+      </c>
+      <c r="AP44">
+        <v>-0.1634801683616344</v>
+      </c>
+      <c r="AQ44">
+        <v>-17.98994974874372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Pintec Technology Holdings Limited (NasdaqGM:PT)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G45">
+        <v>-0.8173725151253242</v>
+      </c>
+      <c r="H45">
+        <v>-0.8893690579083838</v>
+      </c>
+      <c r="I45">
+        <v>-1.100561473162256</v>
+      </c>
+      <c r="J45">
+        <v>-1.100561473162256</v>
+      </c>
+      <c r="K45">
+        <v>-154.5</v>
+      </c>
+      <c r="L45">
+        <v>-1.335350043215212</v>
+      </c>
+      <c r="M45">
+        <v>-0</v>
+      </c>
+      <c r="N45">
+        <v>-0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>-0</v>
+      </c>
+      <c r="Q45">
+        <v>-0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>32.9</v>
+      </c>
+      <c r="V45">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="W45">
+        <v>-0.9125812167749556</v>
+      </c>
+      <c r="X45">
+        <v>0.02874193130032688</v>
+      </c>
+      <c r="Y45">
+        <v>-0.9413231480752825</v>
+      </c>
+      <c r="Z45">
+        <v>0.4189527227169028</v>
+      </c>
+      <c r="AA45">
+        <v>-0.4610832256986527</v>
+      </c>
+      <c r="AB45">
+        <v>0.05662515985388075</v>
+      </c>
+      <c r="AC45">
+        <v>-0.5177083855525334</v>
+      </c>
+      <c r="AD45">
+        <v>60.1</v>
+      </c>
+      <c r="AE45">
+        <v>7.124812224365185</v>
+      </c>
+      <c r="AF45">
+        <v>67.22481222436518</v>
+      </c>
+      <c r="AG45">
+        <v>34.32481222436518</v>
+      </c>
+      <c r="AH45">
+        <v>0.6137861445190423</v>
+      </c>
+      <c r="AI45">
+        <v>0.6376564568243884</v>
+      </c>
+      <c r="AJ45">
+        <v>0.4479594954681086</v>
+      </c>
+      <c r="AK45">
+        <v>0.4732837103828246</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>-1.48</v>
+      </c>
+      <c r="AN45">
+        <v>-0.4862066175875738</v>
+      </c>
+      <c r="AP45">
+        <v>-0.2776863702319002</v>
+      </c>
+      <c r="AQ45">
+        <v>86.28378378378379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Xiaobai Maimai Inc. (NasdaqGM:HX)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G46">
+        <v>-4.330275229357799</v>
+      </c>
+      <c r="H46">
+        <v>-4.744429882044561</v>
+      </c>
+      <c r="I46">
+        <v>-6.860664819345845</v>
+      </c>
+      <c r="J46">
+        <v>-6.860664819345845</v>
+      </c>
+      <c r="K46">
+        <v>-77.2</v>
+      </c>
+      <c r="L46">
+        <v>-10.11795543905636</v>
+      </c>
+      <c r="M46">
+        <v>-0</v>
+      </c>
+      <c r="N46">
+        <v>-0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>-0</v>
+      </c>
+      <c r="Q46">
+        <v>-0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>21.9</v>
+      </c>
+      <c r="V46">
+        <v>0.518957345971564</v>
+      </c>
+      <c r="W46">
+        <v>-0.7689243027888446</v>
+      </c>
+      <c r="X46">
+        <v>0.02144461504918365</v>
+      </c>
+      <c r="Y46">
+        <v>-0.7903689178380282</v>
+      </c>
+      <c r="Z46">
+        <v>0.07132550076624511</v>
+      </c>
+      <c r="AA46">
+        <v>-0.4893403538292029</v>
+      </c>
+      <c r="AB46">
+        <v>0.03457014145459937</v>
+      </c>
+      <c r="AC46">
+        <v>-0.5239104952838023</v>
+      </c>
+      <c r="AD46">
+        <v>20</v>
+      </c>
+      <c r="AE46">
+        <v>0.7743628580440046</v>
+      </c>
+      <c r="AF46">
+        <v>20.774362858044</v>
+      </c>
+      <c r="AG46">
+        <v>-1.125637141955995</v>
+      </c>
+      <c r="AH46">
+        <v>0.3298860348118695</v>
+      </c>
+      <c r="AI46">
+        <v>0.4339350253003613</v>
+      </c>
+      <c r="AJ46">
+        <v>-0.02740485947028025</v>
+      </c>
+      <c r="AK46">
+        <v>-0.04333646788981374</v>
+      </c>
+      <c r="AL46">
+        <v>2.41</v>
+      </c>
+      <c r="AM46">
+        <v>2.41</v>
+      </c>
+      <c r="AN46">
+        <v>-0.3876570010854396</v>
+      </c>
+      <c r="AO46">
+        <v>-21.99170124481328</v>
+      </c>
+      <c r="AP46">
+        <v>0.02181805593805231</v>
+      </c>
+      <c r="AQ46">
+        <v>-21.99170124481328</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>51 Credit Card Inc. (SEHK:2051)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G47">
+        <v>-1.231858407079646</v>
+      </c>
+      <c r="H47">
+        <v>-1.376106194690266</v>
+      </c>
+      <c r="I47">
+        <v>-2.18141592920354</v>
+      </c>
+      <c r="J47">
+        <v>-2.18141592920354</v>
+      </c>
+      <c r="K47">
+        <v>-289.2</v>
+      </c>
+      <c r="L47">
+        <v>-2.55929203539823</v>
+      </c>
+      <c r="M47">
+        <v>1.12</v>
+      </c>
+      <c r="N47">
+        <v>0.01360874848116647</v>
+      </c>
+      <c r="O47">
+        <v>-0.003872752420470263</v>
+      </c>
+      <c r="P47">
+        <v>-0</v>
+      </c>
+      <c r="Q47">
+        <v>-0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>1.12</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>41.2</v>
+      </c>
+      <c r="V47">
+        <v>0.5006075334143378</v>
+      </c>
+      <c r="W47">
+        <v>-0.5282191780821918</v>
+      </c>
+      <c r="X47">
+        <v>0.02129791364580504</v>
+      </c>
+      <c r="Y47">
+        <v>-0.5495170917279968</v>
+      </c>
+      <c r="Z47">
+        <v>0.2727492155442915</v>
+      </c>
+      <c r="AA47">
+        <v>-0.5949794834660873</v>
+      </c>
+      <c r="AB47">
+        <v>0.02216658939426887</v>
+      </c>
+      <c r="AC47">
+        <v>-0.6171460728603562</v>
+      </c>
+      <c r="AD47">
+        <v>38.7</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>38.7</v>
+      </c>
+      <c r="AG47">
+        <v>-2.5</v>
+      </c>
+      <c r="AH47">
+        <v>0.3198347107438017</v>
+      </c>
+      <c r="AI47">
+        <v>0.1283582089552239</v>
+      </c>
+      <c r="AJ47">
+        <v>-0.03132832080200501</v>
+      </c>
+      <c r="AK47">
+        <v>-0.009604302727621973</v>
+      </c>
+      <c r="AL47">
+        <v>4.75</v>
+      </c>
+      <c r="AM47">
+        <v>-0.8899999999999997</v>
+      </c>
+      <c r="AN47">
+        <v>-0.1624685138539043</v>
+      </c>
+      <c r="AO47">
+        <v>-51.89473684210526</v>
+      </c>
+      <c r="AP47">
+        <v>0.01049538203190596</v>
+      </c>
+      <c r="AQ47">
+        <v>276.9662921348316</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Jianpu Technology Inc. (NYSE:JT)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G48">
+        <v>0.05595899188381034</v>
+      </c>
+      <c r="H48">
+        <v>-0.1110636480136694</v>
+      </c>
+      <c r="I48">
+        <v>-0.1260145237078172</v>
+      </c>
+      <c r="J48">
+        <v>-0.1260145237078172</v>
+      </c>
+      <c r="K48">
+        <v>-52.3</v>
+      </c>
+      <c r="L48">
+        <v>-0.2234087996582657</v>
+      </c>
+      <c r="M48">
+        <v>-0</v>
+      </c>
+      <c r="N48">
+        <v>-0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>-0</v>
+      </c>
+      <c r="Q48">
+        <v>-0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>99.8</v>
+      </c>
+      <c r="V48">
+        <v>1.554517133956386</v>
+      </c>
+      <c r="W48">
+        <v>-0.2265049805110437</v>
+      </c>
+      <c r="X48">
+        <v>0.01906297547711696</v>
+      </c>
+      <c r="Y48">
+        <v>-0.2455679559881607</v>
+      </c>
+      <c r="Z48">
+        <v>5.356979405034322</v>
+      </c>
+      <c r="AA48">
+        <v>-0.6750572082379859</v>
+      </c>
+      <c r="AB48">
+        <v>0.01964903992352302</v>
+      </c>
+      <c r="AC48">
+        <v>-0.6947062481615089</v>
+      </c>
+      <c r="AD48">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="AG48">
+        <v>-91.17999999999999</v>
+      </c>
+      <c r="AH48">
+        <v>0.1183740730568525</v>
+      </c>
+      <c r="AI48">
+        <v>0.04850326356065721</v>
+      </c>
+      <c r="AJ48">
+        <v>3.379540400296517</v>
+      </c>
+      <c r="AK48">
+        <v>-1.17017453798768</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>-0.732</v>
+      </c>
+      <c r="AN48">
+        <v>-0.3315384615384615</v>
+      </c>
+      <c r="AP48">
+        <v>3.506923076923077</v>
+      </c>
+      <c r="AQ48">
+        <v>40.30054644808743</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Senmiao Technology Limited (NasdaqCM:AIHS)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G49">
+        <v>-0.752054794520548</v>
+      </c>
+      <c r="H49">
+        <v>-0.752054794520548</v>
+      </c>
+      <c r="I49">
+        <v>-1.291689209873991</v>
+      </c>
+      <c r="J49">
+        <v>-1.291689209873991</v>
+      </c>
+      <c r="K49">
+        <v>-13.3</v>
+      </c>
+      <c r="L49">
+        <v>-1.821917808219178</v>
+      </c>
+      <c r="M49">
+        <v>-0</v>
+      </c>
+      <c r="N49">
+        <v>-0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>-0</v>
+      </c>
+      <c r="Q49">
+        <v>-0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>4.39</v>
+      </c>
+      <c r="V49">
+        <v>0.0938034188034188</v>
+      </c>
+      <c r="W49">
+        <v>-1.156521739130435</v>
+      </c>
+      <c r="X49">
+        <v>0.01949906133087423</v>
+      </c>
+      <c r="Y49">
+        <v>-1.176020800461309</v>
+      </c>
+      <c r="Z49">
+        <v>0.6913758615777271</v>
+      </c>
+      <c r="AA49">
+        <v>-0.8930427403672843</v>
+      </c>
+      <c r="AB49">
+        <v>0.03075879224947971</v>
+      </c>
+      <c r="AC49">
+        <v>-0.923801532616764</v>
+      </c>
+      <c r="AD49">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE49">
+        <v>0.6516561604006857</v>
+      </c>
+      <c r="AF49">
+        <v>9.351656160400685</v>
+      </c>
+      <c r="AG49">
+        <v>4.961656160400685</v>
+      </c>
+      <c r="AH49">
+        <v>0.1665428377337099</v>
+      </c>
+      <c r="AI49">
+        <v>0.7708474454564346</v>
+      </c>
+      <c r="AJ49">
+        <v>0.09585582317971716</v>
+      </c>
+      <c r="AK49">
+        <v>0.6409037107305324</v>
+      </c>
+      <c r="AL49">
+        <v>0.88</v>
+      </c>
+      <c r="AM49">
+        <v>0.88</v>
+      </c>
+      <c r="AN49">
+        <v>-0.9561490273656444</v>
+      </c>
+      <c r="AO49">
+        <v>-10.98863636363636</v>
+      </c>
+      <c r="AP49">
+        <v>-0.5452968634356177</v>
+      </c>
+      <c r="AQ49">
+        <v>-10.98863636363636</v>
       </c>
     </row>
   </sheetData>
